--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +673,49 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:30</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,31 +7,32 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,10 +527,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.06</v>
+        <v>31.06</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -538,19 +539,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-12 10:22</t>
+          <t>2025-08-13 09:39</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
+          <t>止盈 30+电池冷板重点企业揭秘</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -560,19 +561,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>奥飞娱乐</t>
+          <t>神州数码</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.42</v>
+        <v>41.53</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -581,12 +582,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-12 09:43</t>
+          <t>2025-08-13 09:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
+          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
         </is>
       </c>
     </row>
@@ -598,12 +599,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>科达利</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,10 +613,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.93</v>
+        <v>118.59</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -624,12 +625,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-12 10:32</t>
+          <t>2025-08-13 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 梦网科技2025年08月12日主力资金流</t>
+          <t>机器人 科达利2025年08月13日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -646,16 +647,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>神州数码</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40.29</v>
+        <v>30.83</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -667,55 +668,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-12 11:08</t>
+          <t>2025-08-13 11:28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-12 14:30</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
+          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
         </is>
       </c>
     </row>
@@ -725,6 +683,330 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002329</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:46</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:18</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:26</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>换票 浙大网新2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:44</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>小金属 东方锆业2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1114,7 +1396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1524,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1633,7 +1915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1871,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2023,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2433,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2757,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3253,7 +3535,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:32</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 梦网科技2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:30</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3577,7 +4140,784 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>许继电气</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:21</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海格通信</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:43</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3641,29 +4981,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603217</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.86</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3672,19 +5012,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-11 10:04</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+          <t>元利科技调仓理由</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3694,19 +5034,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.54</v>
+        <v>4.08</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3715,19 +5055,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-11 10:33</t>
+          <t>2025-07-09 14:19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+          <t>粤宏远A调仓理由</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3737,19 +5077,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>浙文互联</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>605***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.55</v>
+        <v>8.33</v>
       </c>
       <c r="F4" t="n">
-        <v>9.26</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3758,19 +5098,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-11 13:30</t>
+          <t>2025-07-09 14:11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+          <t>浙文互联调仓理由</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3780,19 +5120,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宗申动力</t>
+          <t>荣晟环保</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.36</v>
+        <v>11.91</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3801,12 +5141,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-11 14:05</t>
+          <t>2025-07-09 10:03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
+          <t>荣晟环保调仓理由</t>
         </is>
       </c>
     </row>
@@ -3815,1022 +5155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4927,236 +5252,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -5231,6 +5326,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -5399,6 +5724,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5679,7 +6242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6081,158 +6644,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6716,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6315,7 +6726,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6324,10 +6735,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6336,12 +6747,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6353,12 +6764,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6367,10 +6778,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6379,12 +6790,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6457,43 +6868,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6576,16 +7030,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -6597,12 +7051,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6617,7 +7071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6675,7 +7129,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6685,16 +7139,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>皇氏集团</t>
+          <t>华勤技术</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002329</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.01</v>
+        <v>85.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -6706,227 +7160,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-29 09:43</t>
+          <t>2025-07-30 09:37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航天彩虹</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:46</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华勤技术</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-29 11:18</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙大网新</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:26</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>换票 浙大网新2025年07月29日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>****</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:44</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="F7" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:44</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>小金属 东方锆业2025年07月29日主力资金流</t>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,32 +7,33 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +519,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银轮股份</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -527,7 +528,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.06</v>
+        <v>31.89</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -539,19 +540,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-13 09:39</t>
+          <t>2025-08-14 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 30+电池冷板重点企业揭秘</t>
+          <t>止盈 顺络电子：公司布局的高温燃料电池属于固体氧化物燃料电池行业</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -561,19 +562,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>神州数码</t>
+          <t>京北方</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>41.53</v>
+        <v>21.82</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -582,19 +583,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-13 09:55</t>
+          <t>2025-08-14 09:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
+          <t>京北方股东人数减少，主力资金流入，是否意味着短期调整压力增大？以下为具体分析：一、股东人数减少：京北方股东人数减少5092户，环比下降5.55%，筹码趋向集中。二、主力资金流入：8月14日主力资金流入1.40亿元，近5日主力资金流入1.65亿元，显示资金面活跃。三、市场情绪：72.045%的股民收盘盈利，但前期支撑位19.850元和压力位27.700元的突破情况。京北方近期筹码集中，主力资金流入明显，但股价已接近压力位，短期调整压力增大。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -604,19 +605,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>科达利</t>
+          <t>弘业期货</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>001***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>118.59</v>
+        <v>12.7</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>20.55</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -625,12 +626,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-13 09:54</t>
+          <t>2025-08-14 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>机器人 科达利2025年08月13日主力资金流出</t>
+          <t>弘业期货能否在主力资金流入和政策红利下继续走强？以下为具体分析：一、主力资金流入：近5日主力资金流入0.25亿元，显示资金面积极。二、板块爆发：多元金融板块强势爆发，九鼎投资直线涨停，市场情绪高涨。三、政策红利：五大领域迎政策红利，利好多元金融板块。弘业期货目前走势较强，重点关注是否可以突破压力位13.180元，若能突破压力位并站稳，意味着上涨空间打开，否则股价可能遇阻回落。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 弘业期货2025年08月14日主力资金流</t>
         </is>
       </c>
     </row>
@@ -642,38 +643,81 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>顺络电子</t>
+          <t>鲁西化工</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5日线支撑弱于预期，腾出仓位换票 鲁西化工2025年08月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>京北方</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>30.83</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-13 11:28</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
+      <c r="E6" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-14 14:14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>京北方股东人数减少，筹码趋向集中，是否意味着股价将面临调整？以下为具体分析：一、主力资金流入：8月14日主力资金流入2.56亿元，近5日主力资金流入2.81亿元。二、股东人数减少：截止8月8日，公司股东人数为86638人，较上期减少5092户，环比下降5.55%。三、人均持仓增加：人均持仓9735股，上期人均持仓为9194股，环比增长5.88%。京北方近期主力资金持续流入，股东人数减少，人均持仓增加，筹码趋向集中，这些因素可能对股价产生影响，但需关注是否会出现调整。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
         </is>
       </c>
     </row>
@@ -683,6 +727,115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1006,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1072,7 +1225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1806,7 +1959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1915,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2715,7 +2868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3039,7 +3192,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:39</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 30+电池冷板重点企业揭秘</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>118.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>机器人 科达利2025年08月13日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>顺络电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-13 11:28</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3535,288 +3926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:43</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:32</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 梦网科技2025年08月12日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:08</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-12 14:30</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4140,7 +4250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4550,7 +4660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4917,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5155,7 +5265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5252,236 +5362,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -5556,7 +5436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETF-主题轮动精选</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5566,31 +5446,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>515790</v>
+        <v>603079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6899999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F2" t="n">
-        <v>49.79</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-04 12:49</t>
+          <t>2025-07-07 09:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -5602,22 +5482,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2666</v>
+        <v>2440</v>
       </c>
       <c r="E3" t="n">
-        <v>5.1</v>
+        <v>7.92</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5626,39 +5506,39 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39</t>
+          <t>2025-07-07 10:27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601997</v>
+        <v>603001</v>
       </c>
       <c r="E4" t="n">
-        <v>6.52</v>
+        <v>7.02</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -5667,40 +5547,39 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:38</t>
+          <t>2025-07-07 13:29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
-胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>600667</v>
+        <v>603217</v>
       </c>
       <c r="E5" t="n">
-        <v>6.52</v>
+        <v>17.75</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -5709,12 +5588,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-04 10:12</t>
+          <t>2025-07-07 14:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5787,7 +5666,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>ETF-主题轮动精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5797,62 +5676,58 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>515790</v>
       </c>
       <c r="E2" t="n">
-        <v>14.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>49.79</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-11 10:04</t>
+          <t>2025-07-04 12:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2666</v>
       </c>
       <c r="E3" t="n">
-        <v>10.54</v>
+        <v>5.1</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5861,19 +5736,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-11 10:33</t>
+          <t>2025-07-04 10:39</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-中线龙头</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5883,19 +5758,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>605***</t>
-        </is>
+          <t>贵阳银行</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601997</v>
       </c>
       <c r="E4" t="n">
-        <v>32.55</v>
+        <v>6.52</v>
       </c>
       <c r="F4" t="n">
-        <v>9.26</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -5904,19 +5777,20 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-11 13:30</t>
+          <t>2025-07-04 10:38</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
+胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5926,16 +5800,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宗申动力</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>001***</t>
-        </is>
+          <t>太极实业</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>600667</v>
       </c>
       <c r="E5" t="n">
-        <v>24.36</v>
+        <v>6.52</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5947,12 +5819,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-11 14:05</t>
+          <t>2025-07-04 10:12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
+          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6030,12 +5902,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>银轮股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6044,10 +5916,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.93</v>
+        <v>30.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6056,19 +5928,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-07 09:32</t>
+          <t>2025-08-12 10:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 领益智造2025年08月07日主力资金流</t>
+          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6078,19 +5950,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>智微智能</t>
+          <t>奥飞娱乐</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54.46</v>
+        <v>9.42</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6099,12 +5971,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-07 10:44</t>
+          <t>2025-08-12 09:43</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 智微智能2025年08月07日主力资金流</t>
+          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
         </is>
       </c>
     </row>
@@ -6116,24 +5988,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>深圳华强</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.47</v>
+        <v>14.93</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6142,12 +6014,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-07 11:28</t>
+          <t>2025-08-12 10:32</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>海思 深圳华强2025年08月07日主力资金流</t>
+          <t>换票 梦网科技2025年08月12日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6159,21 +6031,302 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:30</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天赐材料</t>
+          <t>宗申动力</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>001***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>24.36</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6185,55 +6338,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-07 13:54</t>
+          <t>2025-08-11 14:05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>离场 天赐材料2025年08月07日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰海通</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-07 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6243,6 +6353,287 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 领益智造2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-07 10:44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 智微智能2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>海思 深圳华强2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-07 13:54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 天赐材料2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰海通</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6644,158 +7035,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6868,7 +7107,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6878,7 +7117,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6887,10 +7126,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6899,12 +7138,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6916,12 +7155,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6930,10 +7169,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6942,12 +7181,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6962,7 +7201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7020,43 +7259,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -7139,16 +7421,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -7160,12 +7442,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,33 +7,34 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,24 +515,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>顺络电子</t>
+          <t>东睦股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.89</v>
+        <v>26.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -540,19 +541,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-14 09:30</t>
+          <t>2025-08-15 10:02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 顺络电子：公司布局的高温燃料电池属于固体氧化物燃料电池行业</t>
+          <t>机器人轻量化十pcb轴向电机 东睦股份2025年08月15日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -562,7 +563,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>京北方</t>
+          <t>科达利</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -571,10 +572,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.82</v>
+        <v>120.46</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -583,19 +584,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-14 09:33</t>
+          <t>2025-08-15 09:51</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>京北方股东人数减少，主力资金流入，是否意味着短期调整压力增大？以下为具体分析：一、股东人数减少：京北方股东人数减少5092户，环比下降5.55%，筹码趋向集中。二、主力资金流入：8月14日主力资金流入1.40亿元，近5日主力资金流入1.65亿元，显示资金面活跃。三、市场情绪：72.045%的股民收盘盈利，但前期支撑位19.850元和压力位27.700元的突破情况。京北方近期筹码集中，主力资金流入明显，但股价已接近压力位，短期调整压力增大。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
+          <t>止盈 科达利2025年08月15日主力资金流入</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -605,19 +606,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>弘业期货</t>
+          <t>金安国纪</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12.7</v>
+        <v>12.79</v>
       </c>
       <c r="F4" t="n">
-        <v>20.55</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -626,12 +627,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-14 09:54</t>
+          <t>2025-08-15 10:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>弘业期货能否在主力资金流入和政策红利下继续走强？以下为具体分析：一、主力资金流入：近5日主力资金流入0.25亿元，显示资金面积极。二、板块爆发：多元金融板块强势爆发，九鼎投资直线涨停，市场情绪高涨。三、政策红利：五大领域迎政策红利，利好多元金融板块。弘业期货目前走势较强，重点关注是否可以突破压力位13.180元，若能突破压力位并站稳，意味着上涨空间打开，否则股价可能遇阻回落。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 弘业期货2025年08月14日主力资金流</t>
+          <t>电子布十pcb补涨 金元证券-电子行业周度点评报告：台积电Q3指引超预期、AI与先进制程成增长双引擎-250719</t>
         </is>
       </c>
     </row>
@@ -643,24 +644,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鲁西化工</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.19</v>
+        <v>12.82</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -669,55 +670,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-14 10:30</t>
+          <t>2025-08-15 13:18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5日线支撑弱于预期，腾出仓位换票 鲁西化工2025年08月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>京北方</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-14 14:14</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>京北方股东人数减少，筹码趋向集中，是否意味着股价将面临调整？以下为具体分析：一、主力资金流入：8月14日主力资金流入2.56亿元，近5日主力资金流入2.81亿元。二、股东人数减少：截止8月8日，公司股东人数为86638人，较上期减少5092户，环比下降5.55%。三、人均持仓增加：人均持仓9735股，上期人均持仓为9194股，环比增长5.88%。京北方近期主力资金持续流入，股东人数减少，人均持仓增加，筹码趋向集中，这些因素可能对股价产生影响，但需关注是否会出现调整。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
+          <t>锂电六氟涨价 【中原锂电池】锂电池行业月报：产业链价格总体上涨，短期仍关注</t>
         </is>
       </c>
     </row>
@@ -800,16 +758,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -821,12 +779,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -836,6 +794,115 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1159,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1549,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1959,7 +2026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2068,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2306,7 +2373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2458,7 +2525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2868,7 +2935,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>顺络电子</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 顺络电子：公司布局的高温燃料电池属于固体氧化物燃料电池行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>京北方</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>京北方股东人数减少，主力资金流入，是否意味着短期调整压力增大？以下为具体分析：一、股东人数减少：京北方股东人数减少5092户，环比下降5.55%，筹码趋向集中。二、主力资金流入：8月14日主力资金流入1.40亿元，近5日主力资金流入1.65亿元，显示资金面活跃。三、市场情绪：72.045%的股民收盘盈利，但前期支撑位19.850元和压力位27.700元的突破情况。京北方近期筹码集中，主力资金流入明显，但股价已接近压力位，短期调整压力增大。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>弘业期货能否在主力资金流入和政策红利下继续走强？以下为具体分析：一、主力资金流入：近5日主力资金流入0.25亿元，显示资金面积极。二、板块爆发：多元金融板块强势爆发，九鼎投资直线涨停，市场情绪高涨。三、政策红利：五大领域迎政策红利，利好多元金融板块。弘业期货目前走势较强，重点关注是否可以突破压力位13.180元，若能突破压力位并站稳，意味着上涨空间打开，否则股价可能遇阻回落。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 弘业期货2025年08月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5日线支撑弱于预期，腾出仓位换票 鲁西化工2025年08月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>京北方</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-14 14:14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>京北方股东人数减少，筹码趋向集中，是否意味着股价将面临调整？以下为具体分析：一、主力资金流入：8月14日主力资金流入2.56亿元，近5日主力资金流入2.81亿元。二、股东人数减少：截止8月8日，公司股东人数为86638人，较上期减少5092户，环比下降5.55%。三、人均持仓增加：人均持仓9735股，上期人均持仓为9194股，环比增长5.88%。京北方近期主力资金持续流入，股东人数减少，人均持仓增加，筹码趋向集中，这些因素可能对股价产生影响，但需关注是否会出现调整。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3192,7 +3540,1604 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>许继电气</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:21</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海格通信</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:43</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3256,7 +5201,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3266,16 +5211,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银轮股份</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603217</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.06</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3287,29 +5232,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-13 09:39</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 30+电池冷板重点企业揭秘</t>
+          <t>元利科技调仓理由</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>神州数码</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3318,10 +5263,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>41.53</v>
+        <v>4.08</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3330,19 +5275,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-13 09:55</t>
+          <t>2025-07-09 14:19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
+          <t>粤宏远A调仓理由</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3352,19 +5297,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>科达利</t>
+          <t>浙文互联</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>118.59</v>
+        <v>8.33</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3373,41 +5318,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-13 09:54</t>
+          <t>2025-07-09 14:11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>机器人 科达利2025年08月13日主力资金流出</t>
+          <t>浙文互联调仓理由</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>顺络电子</t>
+          <t>荣晟环保</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.83</v>
+        <v>11.91</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3416,12 +5361,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-13 11:28</t>
+          <t>2025-07-09 10:03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
+          <t>荣晟环保调仓理由</t>
         </is>
       </c>
     </row>
@@ -3430,1842 +5375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5362,236 +5472,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -5666,6 +5546,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -5834,6 +5944,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:39</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 30+电池冷板重点企业揭秘</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>118.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>机器人 科达利2025年08月13日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>顺络电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-13 11:28</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6114,7 +6462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6352,7 +6700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6633,7 +6981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7035,158 +7383,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7455,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7269,7 +7465,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7278,10 +7474,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7290,12 +7486,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -7307,12 +7503,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7321,10 +7517,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -7333,12 +7529,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7411,43 +7607,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,34 +7,35 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,24 +516,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东睦股份</t>
+          <t>金安国纪</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.5</v>
+        <v>14.06</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -541,12 +542,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 10:02</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>机器人轻量化十pcb轴向电机 东睦股份2025年08月15日主力资金流</t>
+          <t>止盈 元件行业上市公司董秘PK：胜业电气莫东霖薪酬全行业最低，仅为26.40万元</t>
         </is>
       </c>
     </row>
@@ -563,7 +564,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>科达利</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,7 +573,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>120.46</v>
+        <v>13.32</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -584,12 +585,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:51</t>
+          <t>2025-08-18 09:35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 科达利2025年08月15日主力资金流入</t>
+          <t>止盈 多氟多2025年08月18日主力资金流入</t>
         </is>
       </c>
     </row>
@@ -601,24 +602,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金安国纪</t>
+          <t>东睦股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12.79</v>
+        <v>27.39</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -627,55 +628,141 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-15 10:54</t>
+          <t>2025-08-18 10:09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>电子布十pcb补涨 金元证券-电子行业周度点评报告：台积电Q3指引超预期、AI与先进制程成增长双引擎-250719</t>
+          <t>止盈。控制仓位 季度利润同比高增，MIM业务加速释放利润弹性</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.43000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:56</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>人形人形机器人产业机器人产业的的快速发展快速发展，是否，是否为为恒立恒立液压带来了液压带来了新的增长新的增长机遇机遇？恒？恒立立液压液压作为作为线线性性关节领域的关节领域的领先企业领先企业，正，正受益受益于于人人形机器人形机器人产业的产业的快速发展快速发展。。近期近期，多，多个人形个人形机器人项目机器人项目取得取得重要进展重要进展，为，为行业注入行业注入了了新的活力新的活力。行业。行业动态动态：：人人形机器人形机器人-7-7月月2277日，日，领益领益智造智造与与强强脑科技脑科技达成战略合作达成战略合作，，聚焦聚焦灵灵巧手巧手等硬件领域；7等硬件领域；7月2月27日7日，，腾讯联合腾讯联合福田实验室福田实验室发布发布开放平台开放平台TairosTairos，打造，打造机器人机器人““钛钛螺丝”螺丝”；7；7月月2277日，日，湖北设立湖北设立101000亿元母亿元母基金，基金，聚焦人聚焦人形形机器人机器人核心技术核心技术与应用与应用领域。领域。政策政策支持支持：：7月7月3311日日人，，形国国机器人领域常会常会迎来哪些大力推进人工智能大力推进人工智能新规模化商业化规模化商业化机遇，应用应用恒立，为，为液压行业提供了行业提供了能否从中受益政策保障政策保障？。。技术恒立技术突破突破液压作为：：FigureFigure0线性02展示关节领域的2展示家庭场地领先企业家庭场地落地可能，落地，近期行业可能，柔性操作动态为其柔性操作、人带来了新的、人机交互增长契机机交互与。与动态响应行业趋势动态响应能力强大：人能力强大，机器形机器人，机器人大脑领域迎来人大脑成熟政策成熟，看好与资本，看好其后续双重支持其后续场景落地7场景落地与月与量产2量产进度进度。。7日恒立恒立，湖北液压作为液压作为设立1线性线性0关节关节0亿元领域的领先领域的领先母基金企业，企业，，聚焦有望在有望在人形人形人机器人核心技术机器人形机器人与产业产业应用人形的快速发展的领域。机器人领域中快速发展中7受益。受益。月3随着行业随着行业1日迎来哪些新机遇技术的技术的，国，恒不断不断常立液压突破和突破和会大力推进能否政策的政策的人工智能规模化从中受益大力支持，大力支持，商业化？恒恒立恒应用，为立液压液压立液压行业作为的的人形线性市场市场前景提供了政策保障机器人产业关节领域的前景值得值得。的快速发展领先企业期待。期待。公司优势，，风险提示风险提示：技术是否为近期行业：：成熟恒立动态为其以上内容，应用场景液压带来了带来了新的仅供参考，加速以上内容仅供参考，新的增长不构成落地Figure不构成增长机遇契机。投资02投资建议？恒行业趋势建议，展示，股市立液压：人股市有家庭场地有作为线形风险，落地可能风险，性机器人领域投资需，柔性投资需关节领域的迎来政策谨慎操作谨慎。领先企业与资本。、人，正双重受益支持于人7月27形机器人产业的快速发展。日，湖北设立近期1，多00亿元机交互与动态响应能力强大，机器人大脑成熟，个人形看好其后续母基金机器人项目取得 制造成长周报（第25期）：国常会推进深入实施“人工智能+”行动，湖北设立百亿元人形机器人母基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>114.93</v>
+      </c>
+      <c r="F6" t="n">
         <v>33</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-15 13:18</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>锂电六氟涨价 【中原锂电池】锂电池行业月报：产业链价格总体上涨，短期仍关注</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-18 11:02</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>薄膜电容 营收稳健增长，关注下半年毛利率改善</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-18 14:23</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>福莱新材近期是否面临调整压力？近期市场对福莱新材的关注度有所下降，主力资金流入减少，技术指标显示短期趋势可能转弱。主力资金流入减少：近5日主力资金流入0.33亿元，较前期有所减少。技术指标转弱：个股出现kdj金叉技术形态指标，但短期支撑位31.250元面临考验。行业背景：人形机器人板块短期低迷，主要受产业端订单与指引扰动，市场情绪有所波动。综上所述，福莱新材短期内可能面临调整压力，投资者需关注市场情绪变化和技术指标的进一步表现。风险提示：以上仅供参考，不构成投资建议，股市有风险，投资需谨慎。 福莱新材2025年08月18日主力资金流</t>
         </is>
       </c>
     </row>
@@ -690,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,43 +835,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -867,16 +997,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -888,12 +1018,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -903,6 +1033,115 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1292,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1616,7 +1855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2026,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2373,7 +2612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2525,7 +2764,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:02</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人轻量化十pcb轴向电机 东睦股份2025年08月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>120.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:51</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 科达利2025年08月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>电子布十pcb补涨 金元证券-电子行业周度点评报告：台积电Q3指引超预期、AI与先进制程成增长双引擎-250719</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-15 13:18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>锂电六氟涨价 【中原锂电池】锂电池行业月报：产业链价格总体上涨，短期仍关注</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2935,288 +3412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>31.89</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 顺络电子：公司布局的高温燃料电池属于固体氧化物燃料电池行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>京北方</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>京北方股东人数减少，主力资金流入，是否意味着短期调整压力增大？以下为具体分析：一、股东人数减少：京北方股东人数减少5092户，环比下降5.55%，筹码趋向集中。二、主力资金流入：8月14日主力资金流入1.40亿元，近5日主力资金流入1.65亿元，显示资金面活跃。三、市场情绪：72.045%的股民收盘盈利，但前期支撑位19.850元和压力位27.700元的突破情况。京北方近期筹码集中，主力资金流入明显，但股价已接近压力位，短期调整压力增大。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>弘业期货</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>001***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>弘业期货能否在主力资金流入和政策红利下继续走强？以下为具体分析：一、主力资金流入：近5日主力资金流入0.25亿元，显示资金面积极。二、板块爆发：多元金融板块强势爆发，九鼎投资直线涨停，市场情绪高涨。三、政策红利：五大领域迎政策红利，利好多元金融板块。弘业期货目前走势较强，重点关注是否可以突破压力位13.180元，若能突破压力位并站稳，意味着上涨空间打开，否则股价可能遇阻回落。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 弘业期货2025年08月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-14 10:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5日线支撑弱于预期，腾出仓位换票 鲁西化工2025年08月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>京北方</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-14 14:14</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>京北方股东人数减少，筹码趋向集中，是否意味着股价将面临调整？以下为具体分析：一、主力资金流入：8月14日主力资金流入2.56亿元，近5日主力资金流入2.81亿元。二、股东人数减少：截止8月8日，公司股东人数为86638人，较上期减少5092户，环比下降5.55%。三、人均持仓增加：人均持仓9735股，上期人均持仓为9194股，环比增长5.88%。京北方近期主力资金持续流入，股东人数减少，人均持仓增加，筹码趋向集中，这些因素可能对股价产生影响，但需关注是否会出现调整。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3540,7 +3736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4036,7 +4232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4360,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4770,7 +4966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5137,7 +5333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5375,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5472,236 +5668,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -5776,7 +5742,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETF-主题轮动精选</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5786,31 +5752,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>515790</v>
+        <v>603079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6899999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F2" t="n">
-        <v>49.79</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-04 12:49</t>
+          <t>2025-07-07 09:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -5822,22 +5788,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2666</v>
+        <v>2440</v>
       </c>
       <c r="E3" t="n">
-        <v>5.1</v>
+        <v>7.92</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5846,39 +5812,39 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39</t>
+          <t>2025-07-07 10:27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601997</v>
+        <v>603001</v>
       </c>
       <c r="E4" t="n">
-        <v>6.52</v>
+        <v>7.02</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -5887,40 +5853,39 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:38</t>
+          <t>2025-07-07 13:29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
-胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>600667</v>
+        <v>603217</v>
       </c>
       <c r="E5" t="n">
-        <v>6.52</v>
+        <v>17.75</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -5929,12 +5894,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-04 10:12</t>
+          <t>2025-07-07 14:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6007,50 +5972,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>ETF-主题轮动精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>515790</v>
       </c>
       <c r="E2" t="n">
-        <v>31.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>49.79</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-13 09:39</t>
+          <t>2025-07-04 12:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 30+电池冷板重点企业揭秘</t>
+          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6060,16 +6023,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2666</v>
       </c>
       <c r="E3" t="n">
-        <v>41.53</v>
+        <v>5.1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6081,19 +6042,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-13 09:55</t>
+          <t>2025-07-04 10:39</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
+          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-中线龙头</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6103,19 +6064,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>科达利</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
+          <t>贵阳银行</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601997</v>
       </c>
       <c r="E4" t="n">
-        <v>118.59</v>
+        <v>6.52</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6124,41 +6083,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-13 09:54</t>
+          <t>2025-07-04 10:38</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>机器人 科达利2025年08月13日主力资金流出</t>
+          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
+胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
+          <t>太极实业</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>600667</v>
       </c>
       <c r="E5" t="n">
-        <v>30.83</v>
+        <v>6.52</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6167,12 +6125,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-13 11:28</t>
+          <t>2025-07-04 10:12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
+          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6250,12 +6208,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银轮股份</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6264,10 +6222,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.06</v>
+        <v>31.89</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6276,12 +6234,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-12 10:22</t>
+          <t>2025-08-14 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
+          <t>止盈 顺络电子：公司布局的高温燃料电池属于固体氧化物燃料电池行业</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6256,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>奥飞娱乐</t>
+          <t>京北方</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6307,10 +6265,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.42</v>
+        <v>21.82</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6319,41 +6277,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-12 09:43</t>
+          <t>2025-08-14 09:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
+          <t>京北方股东人数减少，主力资金流入，是否意味着短期调整压力增大？以下为具体分析：一、股东人数减少：京北方股东人数减少5092户，环比下降5.55%，筹码趋向集中。二、主力资金流入：8月14日主力资金流入1.40亿元，近5日主力资金流入1.65亿元，显示资金面活跃。三、市场情绪：72.045%的股民收盘盈利，但前期支撑位19.850元和压力位27.700元的突破情况。京北方近期筹码集中，主力资金流入明显，但股价已接近压力位，短期调整压力增大。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>弘业期货</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>001***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.93</v>
+        <v>12.7</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20.55</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6362,12 +6320,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-12 10:32</t>
+          <t>2025-08-14 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 梦网科技2025年08月12日主力资金流</t>
+          <t>弘业期货能否在主力资金流入和政策红利下继续走强？以下为具体分析：一、主力资金流入：近5日主力资金流入0.25亿元，显示资金面积极。二、板块爆发：多元金融板块强势爆发，九鼎投资直线涨停，市场情绪高涨。三、政策红利：五大领域迎政策红利，利好多元金融板块。弘业期货目前走势较强，重点关注是否可以突破压力位13.180元，若能突破压力位并站稳，意味着上涨空间打开，否则股价可能遇阻回落。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 弘业期货2025年08月14日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6337,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>神州数码</t>
+          <t>鲁西化工</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6393,10 +6351,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40.29</v>
+        <v>12.19</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6405,41 +6363,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-12 11:08</t>
+          <t>2025-08-14 10:30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
+          <t>5日线支撑弱于预期，腾出仓位换票 鲁西化工2025年08月14日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鲁西化工</t>
+          <t>京北方</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.26</v>
+        <v>22.67</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6448,12 +6406,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-12 14:30</t>
+          <t>2025-08-14 14:14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
+          <t>京北方股东人数减少，筹码趋向集中，是否意味着股价将面临调整？以下为具体分析：一、主力资金流入：8月14日主力资金流入2.56亿元，近5日主力资金流入2.81亿元。二、股东人数减少：截止8月8日，公司股东人数为86638人，较上期减少5092户，环比下降5.55%。三、人均持仓增加：人均持仓9735股，上期人均持仓为9194股，环比增长5.88%。京北方近期主力资金持续流入，股东人数减少，人均持仓增加，筹码趋向集中，这些因素可能对股价产生影响，但需关注是否会出现调整。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6531,12 +6489,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>银轮股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6545,10 +6503,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.86</v>
+        <v>31.06</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6557,41 +6515,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-11 10:04</t>
+          <t>2025-08-13 09:39</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+          <t>止盈 30+电池冷板重点企业揭秘</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>神州数码</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.54</v>
+        <v>41.53</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6600,19 +6558,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-11 10:33</t>
+          <t>2025-08-13 09:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6622,19 +6580,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>科达利</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>605***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.55</v>
+        <v>118.59</v>
       </c>
       <c r="F4" t="n">
-        <v>9.26</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6643,12 +6601,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-11 13:30</t>
+          <t>2025-08-13 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+          <t>机器人 科达利2025年08月13日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -6660,24 +6618,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宗申动力</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.36</v>
+        <v>30.83</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6686,12 +6644,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-11 14:05</t>
+          <t>2025-08-13 11:28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
+          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6769,12 +6727,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>银轮股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6783,10 +6741,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.93</v>
+        <v>30.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6795,19 +6753,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-07 09:32</t>
+          <t>2025-08-12 10:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 领益智造2025年08月07日主力资金流</t>
+          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6817,19 +6775,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>智微智能</t>
+          <t>奥飞娱乐</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54.46</v>
+        <v>9.42</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6838,12 +6796,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-07 10:44</t>
+          <t>2025-08-12 09:43</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 智微智能2025年08月07日主力资金流</t>
+          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
         </is>
       </c>
     </row>
@@ -6855,24 +6813,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>深圳华强</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.47</v>
+        <v>14.93</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6881,12 +6839,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-07 11:28</t>
+          <t>2025-08-12 10:32</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>海思 深圳华强2025年08月07日主力资金流</t>
+          <t>换票 梦网科技2025年08月12日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6898,21 +6856,302 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:30</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天赐材料</t>
+          <t>宗申动力</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>001***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>24.36</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6924,55 +7163,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-07 13:54</t>
+          <t>2025-08-11 14:05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>离场 天赐材料2025年08月07日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰海通</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-07 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6982,6 +7178,287 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 领益智造2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-07 10:44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 智微智能2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>海思 深圳华强2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-07 13:54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 天赐材料2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰海通</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7383,158 +7860,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7932,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7617,7 +7942,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7626,10 +7951,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7638,12 +7963,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7980,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7669,10 +7994,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -7681,12 +8006,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,35 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +512,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,16 +522,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金安国纪</t>
+          <t>恒立液压</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>601***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.06</v>
+        <v>80.41</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -542,41 +543,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-08-19 09:37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 元件行业上市公司董秘PK：胜业电气莫东霖薪酬全行业最低，仅为26.40万元</t>
+          <t>恒立液压近期的市场表现是否预示着潜在风险？恒立液压近期的资金流向和融资数据引发了市场关注。主力资金流入流出频繁，技术指标出现金叉，但整体趋势仍需谨慎观察。主力资金波动：近5日主力资金流出0.06亿元融资买入活跃：8月18日获融资买入6482.28万元尽管技术指标显示kdj金叉，但主力资金的流出和融资买入的活跃度表明市场对恒立液压的态度存在分歧。投资者需关注后续资金流向和技术指标的变化，以判断市场的真实意图。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 恒立液压2025年08月19日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>海南华铁</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.32</v>
+        <v>10.85</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -585,184 +586,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:35</t>
+          <t>2025-08-19 09:40</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 多氟多2025年08月18日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东睦股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-18 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>止盈。控制仓位 季度利润同比高增，MIM业务加速释放利润弹性</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒立液压</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>76.43000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-18 10:56</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>人形人形机器人产业机器人产业的的快速发展快速发展，是否，是否为为恒立恒立液压带来了液压带来了新的增长新的增长机遇机遇？恒？恒立立液压液压作为作为线线性性关节领域的关节领域的领先企业领先企业，正，正受益受益于于人人形机器人形机器人产业的产业的快速发展快速发展。。近期近期，多，多个人形个人形机器人项目机器人项目取得取得重要进展重要进展，为，为行业注入行业注入了了新的活力新的活力。行业。行业动态动态：：人人形机器人形机器人-7-7月月2277日，日，领益领益智造智造与与强强脑科技脑科技达成战略合作达成战略合作，，聚焦聚焦灵灵巧手巧手等硬件领域；7等硬件领域；7月2月27日7日，，腾讯联合腾讯联合福田实验室福田实验室发布发布开放平台开放平台TairosTairos，打造，打造机器人机器人““钛钛螺丝”螺丝”；7；7月月2277日，日，湖北设立湖北设立101000亿元母亿元母基金，基金，聚焦人聚焦人形形机器人机器人核心技术核心技术与应用与应用领域。领域。政策政策支持支持：：7月7月3311日日人，，形国国机器人领域常会常会迎来哪些大力推进人工智能大力推进人工智能新规模化商业化规模化商业化机遇，应用应用恒立，为，为液压行业提供了行业提供了能否从中受益政策保障政策保障？。。技术恒立技术突破突破液压作为：：FigureFigure0线性02展示关节领域的2展示家庭场地领先企业家庭场地落地可能，落地，近期行业可能，柔性操作动态为其柔性操作、人带来了新的、人机交互增长契机机交互与。与动态响应行业趋势动态响应能力强大：人能力强大，机器形机器人，机器人大脑领域迎来人大脑成熟政策成熟，看好与资本，看好其后续双重支持其后续场景落地7场景落地与月与量产2量产进度进度。。7日恒立恒立，湖北液压作为液压作为设立1线性线性0关节关节0亿元领域的领先领域的领先母基金企业，企业，，聚焦有望在有望在人形人形人机器人核心技术机器人形机器人与产业产业应用人形的快速发展的领域。机器人领域中快速发展中7受益。受益。月3随着行业随着行业1日迎来哪些新机遇技术的技术的，国，恒不断不断常立液压突破和突破和会大力推进能否政策的政策的人工智能规模化从中受益大力支持，大力支持，商业化？恒恒立恒应用，为立液压液压立液压行业作为的的人形线性市场市场前景提供了政策保障机器人产业关节领域的前景值得值得。的快速发展领先企业期待。期待。公司优势，，风险提示风险提示：技术是否为近期行业：：成熟恒立动态为其以上内容，应用场景液压带来了带来了新的仅供参考，加速以上内容仅供参考，新的增长不构成落地Figure不构成增长机遇契机。投资02投资建议？恒行业趋势建议，展示，股市立液压：人股市有家庭场地有作为线形风险，落地可能风险，性机器人领域投资需，柔性投资需关节领域的迎来政策谨慎操作谨慎。领先企业与资本。、人，正双重受益支持于人7月27形机器人产业的快速发展。日，湖北设立近期1，多00亿元机交互与动态响应能力强大，机器人大脑成熟，个人形看好其后续母基金机器人项目取得 制造成长周报（第25期）：国常会推进深入实施“人工智能+”行动，湖北设立百亿元人形机器人母基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>法拉电子</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>114.93</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-18 11:02</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>薄膜电容 营收稳健增长，关注下半年毛利率改善</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>605***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-18 14:23</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>福莱新材近期是否面临调整压力？近期市场对福莱新材的关注度有所下降，主力资金流入减少，技术指标显示短期趋势可能转弱。主力资金流入减少：近5日主力资金流入0.33亿元，较前期有所减少。技术指标转弱：个股出现kdj金叉技术形态指标，但短期支撑位31.250元面临考验。行业背景：人形机器人板块短期低迷，主要受产业端订单与指引扰动，市场情绪有所波动。综上所述，福莱新材短期内可能面临调整压力，投资者需关注市场情绪变化和技术指标的进一步表现。风险提示：以上仅供参考，不构成投资建议，股市有风险，投资需谨慎。 福莱新材2025年08月18日主力资金流</t>
+          <t>海南华铁的国际化布局是否将迎来新的机遇？海南华铁正积极布局国际化战略，通过多项举措提升核心竞争力。公司计划在新加坡交易所上市，这将为公司带来新的发展机遇。RWA代币化：RWA代币化成为数字金融核心发展方向，为海南华铁提供了新的增长点。新加坡上市：公司拟在新加坡上市，借助当地完善的AI基础设施，加速国际化进程。市场前景：新加坡在AI基础设施方面全球领先，为海南华铁的海外业务拓展提供了良好环境。综上所述，海南华铁通过RWA代币化和新加坡上市，有望在国际市场上取得突破，提升品牌影响力和核心竞争力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 RWA破局，踏上资产数字化新征程</t>
         </is>
       </c>
     </row>
@@ -835,7 +664,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -845,7 +674,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -854,10 +683,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -866,12 +695,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -883,12 +712,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -897,10 +726,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -909,12 +738,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -929,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,43 +816,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1106,16 +978,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1127,12 +999,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1142,6 +1014,115 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1465,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1531,7 +1512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1855,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2374,7 +2355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2612,7 +2593,331 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 元件行业上市公司董秘PK：胜业电气莫东霖薪酬全行业最低，仅为26.40万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:35</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 多氟多2025年08月18日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>止盈。控制仓位 季度利润同比高增，MIM业务加速释放利润弹性</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.43000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:56</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>人形人形机器人产业机器人产业的的快速发展快速发展，是否，是否为为恒立恒立液压带来了液压带来了新的增长新的增长机遇机遇？恒？恒立立液压液压作为作为线线性性关节领域的关节领域的领先企业领先企业，正，正受益受益于于人人形机器人形机器人产业的产业的快速发展快速发展。。近期近期，多，多个人形个人形机器人项目机器人项目取得取得重要进展重要进展，为，为行业注入行业注入了了新的活力新的活力。行业。行业动态动态：：人人形机器人形机器人-7-7月月2277日，日，领益领益智造智造与与强强脑科技脑科技达成战略合作达成战略合作，，聚焦聚焦灵灵巧手巧手等硬件领域；7等硬件领域；7月2月27日7日，，腾讯联合腾讯联合福田实验室福田实验室发布发布开放平台开放平台TairosTairos，打造，打造机器人机器人““钛钛螺丝”螺丝”；7；7月月2277日，日，湖北设立湖北设立101000亿元母亿元母基金，基金，聚焦人聚焦人形形机器人机器人核心技术核心技术与应用与应用领域。领域。政策政策支持支持：：7月7月3311日日人，，形国国机器人领域常会常会迎来哪些大力推进人工智能大力推进人工智能新规模化商业化规模化商业化机遇，应用应用恒立，为，为液压行业提供了行业提供了能否从中受益政策保障政策保障？。。技术恒立技术突破突破液压作为：：FigureFigure0线性02展示关节领域的2展示家庭场地领先企业家庭场地落地可能，落地，近期行业可能，柔性操作动态为其柔性操作、人带来了新的、人机交互增长契机机交互与。与动态响应行业趋势动态响应能力强大：人能力强大，机器形机器人，机器人大脑领域迎来人大脑成熟政策成熟，看好与资本，看好其后续双重支持其后续场景落地7场景落地与月与量产2量产进度进度。。7日恒立恒立，湖北液压作为液压作为设立1线性线性0关节关节0亿元领域的领先领域的领先母基金企业，企业，，聚焦有望在有望在人形人形人机器人核心技术机器人形机器人与产业产业应用人形的快速发展的领域。机器人领域中快速发展中7受益。受益。月3随着行业随着行业1日迎来哪些新机遇技术的技术的，国，恒不断不断常立液压突破和突破和会大力推进能否政策的政策的人工智能规模化从中受益大力支持，大力支持，商业化？恒恒立恒应用，为立液压液压立液压行业作为的的人形线性市场市场前景提供了政策保障机器人产业关节领域的前景值得值得。的快速发展领先企业期待。期待。公司优势，，风险提示风险提示：技术是否为近期行业：：成熟恒立动态为其以上内容，应用场景液压带来了带来了新的仅供参考，加速以上内容仅供参考，新的增长不构成落地Figure不构成增长机遇契机。投资02投资建议？恒行业趋势建议，展示，股市立液压：人股市有家庭场地有作为线形风险，落地可能风险，性机器人领域投资需，柔性投资需关节领域的迎来政策谨慎操作谨慎。领先企业与资本。、人，正双重受益支持于人7月27形机器人产业的快速发展。日，湖北设立近期1，多00亿元机交互与动态响应能力强大，机器人大脑成熟，个人形看好其后续母基金机器人项目取得 制造成长周报（第25期）：国常会推进深入实施“人工智能+”行动，湖北设立百亿元人形机器人母基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>114.93</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-18 11:02</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>薄膜电容 营收稳健增长，关注下半年毛利率改善</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-18 14:23</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>福莱新材近期是否面临调整压力？近期市场对福莱新材的关注度有所下降，主力资金流入减少，技术指标显示短期趋势可能转弱。主力资金流入减少：近5日主力资金流入0.33亿元，较前期有所减少。技术指标转弱：个股出现kdj金叉技术形态指标，但短期支撑位31.250元面临考验。行业背景：人形机器人板块短期低迷，主要受产业端订单与指引扰动，市场情绪有所波动。综上所述，福莱新材短期内可能面临调整压力，投资者需关注市场情绪变化和技术指标的进一步表现。风险提示：以上仅供参考，不构成投资建议，股市有风险，投资需谨慎。 福莱新材2025年08月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2764,7 +3069,2338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-17 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-16 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-16 13:46</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>许继电气</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:21</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海格通信</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:43</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2828,29 +5464,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东睦股份</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603217</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.5</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2859,41 +5495,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-15 10:02</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>机器人轻量化十pcb轴向电机 东睦股份2025年08月15日主力资金流</t>
+          <t>元利科技调仓理由</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>科达利</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>120.46</v>
+        <v>4.08</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2902,19 +5538,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-15 09:51</t>
+          <t>2025-07-09 14:19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 科达利2025年08月15日主力资金流入</t>
+          <t>粤宏远A调仓理由</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2924,19 +5560,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金安国纪</t>
+          <t>浙文互联</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12.79</v>
+        <v>8.33</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2945,41 +5581,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-15 10:54</t>
+          <t>2025-07-09 14:11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>电子布十pcb补涨 金元证券-电子行业周度点评报告：台积电Q3指引超预期、AI与先进制程成增长双引擎-250719</t>
+          <t>浙文互联调仓理由</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>荣晟环保</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.82</v>
+        <v>11.91</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2988,12 +5624,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-15 13:18</t>
+          <t>2025-07-09 10:03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>锂电六氟涨价 【中原锂电池】锂电池行业月报：产业链价格总体上涨，短期仍关注</t>
+          <t>荣晟环保调仓理由</t>
         </is>
       </c>
     </row>
@@ -3002,2576 +5638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-17 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-17 09:52</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>换票 大众交通2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒生电子</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-17 13:44</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:32</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>止损 合锻智能2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:13</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-16 13:46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5668,236 +5735,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -5972,7 +5809,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETF-主题轮动精选</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5982,31 +5819,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>515790</v>
+        <v>603079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6899999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F2" t="n">
-        <v>49.79</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-04 12:49</t>
+          <t>2025-07-07 09:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -6018,22 +5855,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2666</v>
+        <v>2440</v>
       </c>
       <c r="E3" t="n">
-        <v>5.1</v>
+        <v>7.92</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6042,39 +5879,39 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39</t>
+          <t>2025-07-07 10:27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601997</v>
+        <v>603001</v>
       </c>
       <c r="E4" t="n">
-        <v>6.52</v>
+        <v>7.02</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6083,40 +5920,39 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:38</t>
+          <t>2025-07-07 13:29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
-胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>600667</v>
+        <v>603217</v>
       </c>
       <c r="E5" t="n">
-        <v>6.52</v>
+        <v>17.75</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6125,12 +5961,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-04 10:12</t>
+          <t>2025-07-07 14:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -6140,6 +5976,475 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:02</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人轻量化十pcb轴向电机 东睦股份2025年08月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>120.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:51</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 科达利2025年08月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>电子布十pcb补涨 金元证券-电子行业周度点评报告：台积电Q3指引超预期、AI与先进制程成增长双引擎-250719</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-15 13:18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>锂电六氟涨价 【中原锂电池】锂电池行业月报：产业链价格总体上涨，短期仍关注</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ETF-主题轮动精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>515790</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-04 12:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:39</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贵阳银行</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:38</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
+胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太极实业</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>600667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6420,7 +6725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6658,7 +6963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6939,7 +7244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7177,7 +7482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7458,7 +7763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7866,156 +8171,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,36 +7,37 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,29 +513,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒立液压</t>
+          <t>川发龙蟒</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>601***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80.41</v>
+        <v>11.46</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -543,55 +544,98 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-19 09:37</t>
+          <t>2025-08-20 09:53</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>恒立液压近期的市场表现是否预示着潜在风险？恒立液压近期的资金流向和融资数据引发了市场关注。主力资金流入流出频繁，技术指标出现金叉，但整体趋势仍需谨慎观察。主力资金波动：近5日主力资金流出0.06亿元融资买入活跃：8月18日获融资买入6482.28万元尽管技术指标显示kdj金叉，但主力资金的流出和融资买入的活跃度表明市场对恒立液压的态度存在分歧。投资者需关注后续资金流向和技术指标的变化，以判断市场的真实意图。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 恒立液压2025年08月19日主力资金流</t>
+          <t>磷化工 开源证券-基础化工行业周报：库存持续释放，涤纶长丝市场走势上行-250505</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>113.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-20 11:14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>仓位释放出来。 法拉电子2025年08月20日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海南华铁</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-19 09:40</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>海南华铁的国际化布局是否将迎来新的机遇？海南华铁正积极布局国际化战略，通过多项举措提升核心竞争力。公司计划在新加坡交易所上市，这将为公司带来新的发展机遇。RWA代币化：RWA代币化成为数字金融核心发展方向，为海南华铁提供了新的增长点。新加坡上市：公司拟在新加坡上市，借助当地完善的AI基础设施，加速国际化进程。市场前景：新加坡在AI基础设施方面全球领先，为海南华铁的海外业务拓展提供了良好环境。综上所述，海南华铁通过RWA代币化和新加坡上市，有望在国际市场上取得突破，提升品牌影响力和核心竞争力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 RWA破局，踏上资产数字化新征程</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>妙可蓝多</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-20 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>乳品 抢占B端乳品新蓝海：国产替代正当时</t>
         </is>
       </c>
     </row>
@@ -606,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,12 +713,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>王子新材</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -683,10 +727,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.41</v>
+        <v>20.28</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -695,12 +739,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-05 09:52</t>
+          <t>2025-08-06 09:50</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
+          <t>止盈 光华科技2025年08月06日主力资金流</t>
         </is>
       </c>
     </row>
@@ -717,7 +761,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光华科技</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -726,7 +770,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.55</v>
+        <v>9.44</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
@@ -738,12 +782,270 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-05 10:14</t>
+          <t>2025-08-06 09:58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
+          <t>消费电子 领益智造2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:31</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>恒立液压近期融资买入额较高，是否意味着短期调整压力增大？以下为具体分析：一、内销销量短期承压：2025年5月我国挖掘机内销销量同比下降1.5%，开工率下降5.0个百分点，显示下游需求低迷。二、融资买入额较高：8月1日恒立液压获融资买入2258.04万元，占当日买入金额的10.85%，融资余额超过历史90%分位水平。三、国际化趋势支撑整体销量：尽管内销承压，但国际化趋势支撑整体销量持续增长，2025年1-5月挖掘机出口销量同比增长17.4%。恒立液压作为工程机械行业的龙头，其融资买入额较高，但内销市场短期承压，需关注调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 工程机械行业2025年5月月报：5月挖掘机内销短期承压，国际化趋势支撑整体销量持续增长</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:40</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>腾出仓位换票 王子新材2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:52</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>固态硫化物 电池及电气系统：全固态电池电解质技术路线逐步向硫化物收敛</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:21</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>华为十英伟达物理ai 智微智能2025上半年净利润大增80%，AI与PC业务双轮驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐能否受益于AI玩具政策推动？以下为具体分析：一、主力资金流出：近5日主力资金流出2.02亿元，显示市场短期情绪偏弱。二、成本结构合理：90%股民的成本在9.38元--10.58元，23.071%的股民收盘盈利，成本结构较为合理。三、政策支持：AI玩具行业政策频发，持续推进“人工智能+”行动计划，利好相关企业。奥飞娱乐作为AI玩具行业的领先企业，能否受益于政策推动，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:36</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
         </is>
       </c>
     </row>
@@ -816,7 +1118,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -826,7 +1128,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -835,10 +1137,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -847,12 +1149,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -864,12 +1166,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -878,10 +1180,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -890,12 +1192,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -910,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,43 +1270,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1087,16 +1432,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1108,12 +1453,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1123,6 +1468,115 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1446,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1512,7 +1966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1836,7 +2290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2246,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2355,7 +2809,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>80.41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-19 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>恒立液压近期的市场表现是否预示着潜在风险？恒立液压近期的资金流向和融资数据引发了市场关注。主力资金流入流出频繁，技术指标出现金叉，但整体趋势仍需谨慎观察。主力资金波动：近5日主力资金流出0.06亿元融资买入活跃：8月18日获融资买入6482.28万元尽管技术指标显示kdj金叉，但主力资金的流出和融资买入的活跃度表明市场对恒立液压的态度存在分歧。投资者需关注后续资金流向和技术指标的变化，以判断市场的真实意图。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 恒立液压2025年08月19日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-19 09:40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>海南华铁的国际化布局是否将迎来新的机遇？海南华铁正积极布局国际化战略，通过多项举措提升核心竞争力。公司计划在新加坡交易所上市，这将为公司带来新的发展机遇。RWA代币化：RWA代币化成为数字金融核心发展方向，为海南华铁提供了新的增长点。新加坡上市：公司拟在新加坡上市，借助当地完善的AI基础设施，加速国际化进程。市场前景：新加坡在AI基础设施方面全球领先，为海南华铁的海外业务拓展提供了良好环境。综上所述，海南华铁通过RWA代币化和新加坡上市，有望在国际市场上取得突破，提升品牌影响力和核心竞争力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 RWA破局，踏上资产数字化新征程</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2593,7 +3199,569 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:35</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-17 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2662,24 +3830,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金安国纪</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.06</v>
+        <v>20.44</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2688,12 +3856,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:30</t>
+          <t>2025-07-16 09:37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 元件行业上市公司董秘PK：胜业电气莫东霖薪酬全行业最低，仅为26.40万元</t>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2705,24 +3873,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.32</v>
+        <v>6.19</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2731,12 +3899,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:35</t>
+          <t>2025-07-16 10:13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 多氟多2025年08月18日主力资金流入</t>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2753,7 +3921,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东睦股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2762,7 +3930,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.39</v>
+        <v>25.57</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2774,19 +3942,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-18 10:09</t>
+          <t>2025-07-16 10:09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>止盈。控制仓位 季度利润同比高增，MIM业务加速释放利润弹性</t>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2796,19 +3964,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒立液压</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>601***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.43000000000001</v>
+        <v>16.68</v>
       </c>
       <c r="F5" t="n">
-        <v>18.44</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2817,12 +3985,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-18 10:56</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>人形人形机器人产业机器人产业的的快速发展快速发展，是否，是否为为恒立恒立液压带来了液压带来了新的增长新的增长机遇机遇？恒？恒立立液压液压作为作为线线性性关节领域的关节领域的领先企业领先企业，正，正受益受益于于人人形机器人形机器人产业的产业的快速发展快速发展。。近期近期，多，多个人形个人形机器人项目机器人项目取得取得重要进展重要进展，为，为行业注入行业注入了了新的活力新的活力。行业。行业动态动态：：人人形机器人形机器人-7-7月月2277日，日，领益领益智造智造与与强强脑科技脑科技达成战略合作达成战略合作，，聚焦聚焦灵灵巧手巧手等硬件领域；7等硬件领域；7月2月27日7日，，腾讯联合腾讯联合福田实验室福田实验室发布发布开放平台开放平台TairosTairos，打造，打造机器人机器人““钛钛螺丝”螺丝”；7；7月月2277日，日，湖北设立湖北设立101000亿元母亿元母基金，基金，聚焦人聚焦人形形机器人机器人核心技术核心技术与应用与应用领域。领域。政策政策支持支持：：7月7月3311日日人，，形国国机器人领域常会常会迎来哪些大力推进人工智能大力推进人工智能新规模化商业化规模化商业化机遇，应用应用恒立，为，为液压行业提供了行业提供了能否从中受益政策保障政策保障？。。技术恒立技术突破突破液压作为：：FigureFigure0线性02展示关节领域的2展示家庭场地领先企业家庭场地落地可能，落地，近期行业可能，柔性操作动态为其柔性操作、人带来了新的、人机交互增长契机机交互与。与动态响应行业趋势动态响应能力强大：人能力强大，机器形机器人，机器人大脑领域迎来人大脑成熟政策成熟，看好与资本，看好其后续双重支持其后续场景落地7场景落地与月与量产2量产进度进度。。7日恒立恒立，湖北液压作为液压作为设立1线性线性0关节关节0亿元领域的领先领域的领先母基金企业，企业，，聚焦有望在有望在人形人形人机器人核心技术机器人形机器人与产业产业应用人形的快速发展的领域。机器人领域中快速发展中7受益。受益。月3随着行业随着行业1日迎来哪些新机遇技术的技术的，国，恒不断不断常立液压突破和突破和会大力推进能否政策的政策的人工智能规模化从中受益大力支持，大力支持，商业化？恒恒立恒应用，为立液压液压立液压行业作为的的人形线性市场市场前景提供了政策保障机器人产业关节领域的前景值得值得。的快速发展领先企业期待。期待。公司优势，，风险提示风险提示：技术是否为近期行业：：成熟恒立动态为其以上内容，应用场景液压带来了带来了新的仅供参考，加速以上内容仅供参考，新的增长不构成落地Figure不构成增长机遇契机。投资02投资建议？恒行业趋势建议，展示，股市立液压：人股市有家庭场地有作为线形风险，落地可能风险，性机器人领域投资需，柔性投资需关节领域的迎来政策谨慎操作谨慎。领先企业与资本。、人，正双重受益支持于人7月27形机器人产业的快速发展。日，湖北设立近期1，多00亿元机交互与动态响应能力强大，机器人大脑成熟，个人形看好其后续母基金机器人项目取得 制造成长周报（第25期）：国常会推进深入实施“人工智能+”行动，湖北设立百亿元人形机器人母基金</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -2839,16 +4007,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>法拉电子</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>114.93</v>
+        <v>16.68</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -2860,19 +4028,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-18 11:02</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>薄膜电容 营收稳健增长，关注下半年毛利率改善</t>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2882,16 +4050,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>605***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34.1</v>
+        <v>15.71</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2903,12 +4071,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-18 14:23</t>
+          <t>2025-07-16 13:46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>福莱新材近期是否面临调整压力？近期市场对福莱新材的关注度有所下降，主力资金流入减少，技术指标显示短期趋势可能转弱。主力资金流入减少：近5日主力资金流入0.33亿元，较前期有所减少。技术指标转弱：个股出现kdj金叉技术形态指标，但短期支撑位31.250元面临考验。行业背景：人形机器人板块短期低迷，主要受产业端订单与指引扰动，市场情绪有所波动。综上所述，福莱新材短期内可能面临调整压力，投资者需关注市场情绪变化和技术指标的进一步表现。风险提示：以上仅供参考，不构成投资建议，股市有风险，投资需谨慎。 福莱新材2025年08月18日主力资金流</t>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -2917,13 +4085,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2981,7 +4149,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2991,16 +4159,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.68</v>
+        <v>12.24</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3012,55 +4180,399 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:35</t>
+          <t>2025-07-15 09:20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-18 13:55</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3069,7 +4581,331 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3138,12 +4974,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3152,10 +4988,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.31</v>
+        <v>20.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3164,12 +5000,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-11 13:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3186,16 +5022,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>许继电气</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.31</v>
+        <v>21.91</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3207,19 +5043,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-11 13:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 大众交通2025年07月17日主力资金流</t>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3229,19 +5065,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.63</v>
+        <v>33.58</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3250,19 +5086,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-17 10:04</t>
+          <t>2025-07-11 13:16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3272,19 +5108,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.63</v>
+        <v>12.22</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3293,41 +5129,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-17 10:04</t>
+          <t>2025-07-11 11:48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.92</v>
+        <v>16.64</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3336,12 +5172,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-17 10:31</t>
+          <t>2025-07-11 10:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -3358,7 +5194,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>保利发展</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3367,7 +5203,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.92</v>
+        <v>8.33</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3379,12 +5215,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-17 10:31</t>
+          <t>2025-07-11 10:10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
         </is>
       </c>
     </row>
@@ -3396,24 +5232,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生电子</t>
+          <t>海格通信</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33.31</v>
+        <v>12.97</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3422,12 +5258,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-17 13:44</t>
+          <t>2025-07-11 13:43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
         </is>
       </c>
     </row>
@@ -3439,24 +5275,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>合锻智能</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.26</v>
+        <v>10.96</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3465,12 +5301,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-17 14:32</t>
+          <t>2025-07-11 13:59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>止损 合锻智能2025年07月17日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -3479,7 +5315,719 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>元利科技调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:19</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>粤宏远A调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>浙文互联调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-09 10:03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>荣晟环保调仓理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3548,24 +6096,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>金安国纪</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.44</v>
+        <v>14.06</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3574,12 +6122,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-16 09:37</t>
+          <t>2025-08-18 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
+          <t>止盈 元件行业上市公司董秘PK：胜业电气莫东霖薪酬全行业最低，仅为26.40万元</t>
         </is>
       </c>
     </row>
@@ -3591,24 +6139,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.19</v>
+        <v>13.32</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3617,12 +6165,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-16 10:13</t>
+          <t>2025-08-18 09:35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
+          <t>止盈 多氟多2025年08月18日主力资金流入</t>
         </is>
       </c>
     </row>
@@ -3639,7 +6187,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>东睦股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3648,7 +6196,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.57</v>
+        <v>27.39</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3660,19 +6208,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-16 10:09</t>
+          <t>2025-08-18 10:09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
+          <t>止盈。控制仓位 季度利润同比高增，MIM业务加速释放利润弹性</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3682,19 +6230,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>恒立液压</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>601***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.68</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>18.44</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3703,12 +6251,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-16 11:17</t>
+          <t>2025-08-18 10:56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>人形人形机器人产业机器人产业的的快速发展快速发展，是否，是否为为恒立恒立液压带来了液压带来了新的增长新的增长机遇机遇？恒？恒立立液压液压作为作为线线性性关节领域的关节领域的领先企业领先企业，正，正受益受益于于人人形机器人形机器人产业的产业的快速发展快速发展。。近期近期，多，多个人形个人形机器人项目机器人项目取得取得重要进展重要进展，为，为行业注入行业注入了了新的活力新的活力。行业。行业动态动态：：人人形机器人形机器人-7-7月月2277日，日，领益领益智造智造与与强强脑科技脑科技达成战略合作达成战略合作，，聚焦聚焦灵灵巧手巧手等硬件领域；7等硬件领域；7月2月27日7日，，腾讯联合腾讯联合福田实验室福田实验室发布发布开放平台开放平台TairosTairos，打造，打造机器人机器人““钛钛螺丝”螺丝”；7；7月月2277日，日，湖北设立湖北设立101000亿元母亿元母基金，基金，聚焦人聚焦人形形机器人机器人核心技术核心技术与应用与应用领域。领域。政策政策支持支持：：7月7月3311日日人，，形国国机器人领域常会常会迎来哪些大力推进人工智能大力推进人工智能新规模化商业化规模化商业化机遇，应用应用恒立，为，为液压行业提供了行业提供了能否从中受益政策保障政策保障？。。技术恒立技术突破突破液压作为：：FigureFigure0线性02展示关节领域的2展示家庭场地领先企业家庭场地落地可能，落地，近期行业可能，柔性操作动态为其柔性操作、人带来了新的、人机交互增长契机机交互与。与动态响应行业趋势动态响应能力强大：人能力强大，机器形机器人，机器人大脑领域迎来人大脑成熟政策成熟，看好与资本，看好其后续双重支持其后续场景落地7场景落地与月与量产2量产进度进度。。7日恒立恒立，湖北液压作为液压作为设立1线性线性0关节关节0亿元领域的领先领域的领先母基金企业，企业，，聚焦有望在有望在人形人形人机器人核心技术机器人形机器人与产业产业应用人形的快速发展的领域。机器人领域中快速发展中7受益。受益。月3随着行业随着行业1日迎来哪些新机遇技术的技术的，国，恒不断不断常立液压突破和突破和会大力推进能否政策的政策的人工智能规模化从中受益大力支持，大力支持，商业化？恒恒立恒应用，为立液压液压立液压行业作为的的人形线性市场市场前景提供了政策保障机器人产业关节领域的前景值得值得。的快速发展领先企业期待。期待。公司优势，，风险提示风险提示：技术是否为近期行业：：成熟恒立动态为其以上内容，应用场景液压带来了带来了新的仅供参考，加速以上内容仅供参考，新的增长不构成落地Figure不构成增长机遇契机。投资02投资建议？恒行业趋势建议，展示，股市立液压：人股市有家庭场地有作为线形风险，落地可能风险，性机器人领域投资需，柔性投资需关节领域的迎来政策谨慎操作谨慎。领先企业与资本。、人，正双重受益支持于人7月27形机器人产业的快速发展。日，湖北设立近期1，多00亿元机交互与动态响应能力强大，机器人大脑成熟，个人形看好其后续母基金机器人项目取得 制造成长周报（第25期）：国常会推进深入实施“人工智能+”行动，湖北设立百亿元人形机器人母基金</t>
         </is>
       </c>
     </row>
@@ -3725,16 +6273,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>合锻智能</t>
+          <t>法拉电子</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.68</v>
+        <v>114.93</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -3746,19 +6294,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-16 11:17</t>
+          <t>2025-08-18 11:02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
+          <t>薄膜电容 营收稳健增长，关注下半年毛利率改善</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3768,16 +6316,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新亚强</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>605***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.71</v>
+        <v>34.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3789,2422 +6337,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-16 13:46</t>
+          <t>2025-08-18 14:23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东睦股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:02</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人轻量化十pcb轴向电机 东睦股份2025年08月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>科达利</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>120.46</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-15 09:51</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>止盈 科达利2025年08月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金安国纪</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>电子布十pcb补涨 金元证券-电子行业周度点评报告：台积电Q3指引超预期、AI与先进制程成增长双引擎-250719</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-15 13:18</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>锂电六氟涨价 【中原锂电池】锂电池行业月报：产业链价格总体上涨，短期仍关注</t>
+          <t>福莱新材近期是否面临调整压力？近期市场对福莱新材的关注度有所下降，主力资金流入减少，技术指标显示短期趋势可能转弱。主力资金流入减少：近5日主力资金流入0.33亿元，较前期有所减少。技术指标转弱：个股出现kdj金叉技术形态指标，但短期支撑位31.250元面临考验。行业背景：人形机器人板块短期低迷，主要受产业端订单与指引扰动，市场情绪有所波动。综上所述，福莱新材短期内可能面临调整压力，投资者需关注市场情绪变化和技术指标的进一步表现。风险提示：以上仅供参考，不构成投资建议，股市有风险，投资需谨慎。 福莱新材2025年08月18日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6277,6 +6415,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -6445,6 +6813,244 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:02</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人轻量化十pcb轴向电机 东睦股份2025年08月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>120.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-15 09:51</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 科达利2025年08月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>电子布十pcb补涨 金元证券-电子行业周度点评报告：台积电Q3指引超预期、AI与先进制程成增长双引擎-250719</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-15 13:18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>锂电六氟涨价 【中原锂电池】锂电池行业月报：产业链价格总体上涨，短期仍关注</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6725,7 +7331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6963,7 +7569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7244,7 +7850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7482,7 +8088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7761,414 +8367,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:50</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 光华科技2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:58</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>消费电子 领益智造2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒立液压</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>80.68000000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:31</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>恒立液压近期融资买入额较高，是否意味着短期调整压力增大？以下为具体分析：一、内销销量短期承压：2025年5月我国挖掘机内销销量同比下降1.5%，开工率下降5.0个百分点，显示下游需求低迷。二、融资买入额较高：8月1日恒立液压获融资买入2258.04万元，占当日买入金额的10.85%，融资余额超过历史90%分位水平。三、国际化趋势支撑整体销量：尽管内销承压，但国际化趋势支撑整体销量持续增长，2025年1-5月挖掘机出口销量同比增长17.4%。恒立液压作为工程机械行业的龙头，其融资买入额较高，但内销市场短期承压，需关注调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 工程机械行业2025年5月月报：5月挖掘机内销短期承压，国际化趋势支撑整体销量持续增长</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-06 10:40</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>腾出仓位换票 王子新材2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天赐材料</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>19.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-06 10:52</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>固态硫化物 电池及电气系统：全固态电池电解质技术路线逐步向硫化物收敛</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>智微智能</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>001***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-06 11:21</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>华为十英伟达物理ai 智微智能2025上半年净利润大增80%，AI与PC业务双轮驱动</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:34</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>奥飞娱乐能否受益于AI玩具政策推动？以下为具体分析：一、主力资金流出：近5日主力资金流出2.02亿元，显示市场短期情绪偏弱。二、成本结构合理：90%股民的成本在9.38元--10.58元，23.071%的股民收盘盈利，成本结构较为合理。三、政策支持：AI玩具行业政策频发，持续推进“人工智能+”行动计划，利好相关企业。奥飞娱乐作为AI玩具行业的领先企业，能否受益于政策推动，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>三星医疗</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:36</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,39 +7,42 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,6 +460,416 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:54</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>调仓换股 算力收入落地，25Q1利润增速回正</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>一行白鹭上青天 前瞻布局机器人+AI，“汽车+泛工业”双轮驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>止盈 定位为“汽车+机器人Tier1”，在手订单充沛</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>大市值风格机器人十汽车零部件 全球热管理龙头，机器人业务扬帆起航</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>半江瑟瑟半江红 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>做个差价，预期五个点给不给？ 华西证券-计算机行业周报：链上资产，RWA应用深化-250629</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:36</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体大市值风格 核心客户稳定，受益AI浪潮</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>慧智微-U</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-27 13:04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>慧智微-U近期表现如何？市场新增关注射频领域，慧智微-U作为射频领域的代表企业，股价上涨11.2%，表现亮眼。这是否意味着射频领域将迎来新的发展机遇？慧智微-U作为射频领域的领先企业，近期受到市场高度关注。射频板块整体表现强劲，唯捷+20%，卓胜微+13.7%，慧智微-U+11.2%。市场情绪：反制情绪推动模拟板块大涨市场情绪：反制情绪推动模拟板块大涨，华峰测控+14.2%，华虹半导体+19.8%。行业趋势：射频领域迎来新机遇行业趋势：射频领域迎来新机遇，市场新增关注射频，慧智微-U作为射频领域的代表企业，有望受益于行业增长。总结：慧智微-U作为射频领域的领先企业，近期受到市场高度关注，股价表现亮眼。随着射频领域迎来新的发展机遇，慧智微-U有望继续受益。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 【DW电子】每日复盘每日新-电子4.11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -525,16 +938,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>妙可蓝多</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.33</v>
+        <v>31.89</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -546,41 +959,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-22 10:43</t>
+          <t>2025-08-14 09:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止损 妙可蓝多2025年08月22日主力资金流</t>
+          <t>止盈 顺络电子：公司布局的高温燃料电池属于固体氧化物燃料电池行业</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>共进股份</t>
+          <t>京北方</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>21.82</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,41 +1002,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-22 10:14</t>
+          <t>2025-08-14 09:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>交换机 天风证券-计算机行业AI算力系列之交换机：算力网络稳定“核心”，助力AI高效发展-250625</t>
+          <t>京北方股东人数减少，主力资金流入，是否意味着短期调整压力增大？以下为具体分析：一、股东人数减少：京北方股东人数减少5092户，环比下降5.55%，筹码趋向集中。二、主力资金流入：8月14日主力资金流入1.40亿元，近5日主力资金流入1.65亿元，显示资金面活跃。三、市场情绪：72.045%的股民收盘盈利，但前期支撑位19.850元和压力位27.700元的突破情况。京北方近期筹码集中，主力资金流入明显，但股价已接近压力位，短期调整压力增大。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>弘业期货</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>001***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>92.89</v>
+        <v>12.7</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20.55</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -632,12 +1045,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-22 10:08</t>
+          <t>2025-08-14 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 药明康德2025年08月22日主力资金流</t>
+          <t>弘业期货能否在主力资金流入和政策红利下继续走强？以下为具体分析：一、主力资金流入：近5日主力资金流入0.25亿元，显示资金面积极。二、板块爆发：多元金融板块强势爆发，九鼎投资直线涨停，市场情绪高涨。三、政策红利：五大领域迎政策红利，利好多元金融板块。弘业期货目前走势较强，重点关注是否可以突破压力位13.180元，若能突破压力位并站稳，意味着上涨空间打开，否则股价可能遇阻回落。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 弘业期货2025年08月14日主力资金流</t>
         </is>
       </c>
     </row>
@@ -649,24 +1062,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>用友网络</t>
+          <t>鲁西化工</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.01</v>
+        <v>12.19</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -675,12 +1088,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-22 10:05</t>
+          <t>2025-08-14 10:30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ai应用 点评报告：“AI×数据×流程”原生一体加速企业AI落地</t>
+          <t>5日线支撑弱于预期，腾出仓位换票 鲁西化工2025年08月14日主力资金流</t>
         </is>
       </c>
     </row>
@@ -692,12 +1105,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>京北方</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -706,10 +1119,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>48.19</v>
+        <v>22.67</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -718,12 +1131,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-22 11:19</t>
+          <t>2025-08-14 14:14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>钧达股份是否正迎来新的发展机遇？钧达股份近期发布H股发行聆讯后资料集，标志着其海外扩张计划迈出重要一步。海外产能推进：公司计划建设5GW光伏电池海外生产基地，强化盈利弹性。技术与渠道：募集资金将用于研发先进光伏电池技术及建立海外销售网络。市场表现：电气设备行业本周上涨0.57%，钧达股份作为行业龙头，有望受益于行业整体向好。综上所述，钧达股份的海外扩张计划和技术研发将为其带来新的增长动力，值得投资者关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 电力设备行业跟踪周报：人形国内外进展提速，固态前景广阔</t>
+          <t>京北方股东人数减少，筹码趋向集中，是否意味着股价将面临调整？以下为具体分析：一、主力资金流入：8月14日主力资金流入2.56亿元，近5日主力资金流入2.81亿元。二、股东人数减少：截止8月8日，公司股东人数为86638人，较上期减少5092户，环比下降5.55%。三、人均持仓增加：人均持仓9735股，上期人均持仓为9194股，环比增长5.88%。京北方近期主力资金持续流入，股东人数减少，人均持仓增加，筹码趋向集中，这些因素可能对股价产生影响，但需关注是否会出现调整。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
         </is>
       </c>
     </row>
@@ -732,7 +1145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -801,12 +1214,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>银轮股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -815,10 +1228,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.86</v>
+        <v>31.06</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -827,41 +1240,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-11 10:04</t>
+          <t>2025-08-13 09:39</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+          <t>止盈 30+电池冷板重点企业揭秘</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>神州数码</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.54</v>
+        <v>41.53</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -870,19 +1283,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-11 10:33</t>
+          <t>2025-08-13 09:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -892,19 +1305,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>科达利</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>605***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.55</v>
+        <v>118.59</v>
       </c>
       <c r="F4" t="n">
-        <v>9.26</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -913,12 +1326,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-11 13:30</t>
+          <t>2025-08-13 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+          <t>机器人 科达利2025年08月13日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -930,24 +1343,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宗申动力</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.36</v>
+        <v>30.83</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -956,12 +1369,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-11 14:05</t>
+          <t>2025-08-13 11:28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
+          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
         </is>
       </c>
     </row>
@@ -970,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,12 +1452,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>银轮股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1053,10 +1466,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.93</v>
+        <v>30.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1065,19 +1478,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-07 09:32</t>
+          <t>2025-08-12 10:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 领益智造2025年08月07日主力资金流</t>
+          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1087,19 +1500,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>智微智能</t>
+          <t>奥飞娱乐</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54.46</v>
+        <v>9.42</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1108,12 +1521,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-07 10:44</t>
+          <t>2025-08-12 09:43</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 智微智能2025年08月07日主力资金流</t>
+          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
         </is>
       </c>
     </row>
@@ -1125,24 +1538,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>深圳华强</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.47</v>
+        <v>14.93</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1151,12 +1564,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-07 11:28</t>
+          <t>2025-08-12 10:32</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>海思 深圳华强2025年08月07日主力资金流</t>
+          <t>换票 梦网科技2025年08月12日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1168,24 +1581,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天赐材料</t>
+          <t>神州数码</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>40.29</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1194,12 +1607,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-07 13:54</t>
+          <t>2025-08-12 11:08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>离场 天赐材料2025年08月07日主力资金流</t>
+          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1216,16 +1629,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰海通</t>
+          <t>鲁西化工</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>601***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.21</v>
+        <v>12.26</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
@@ -1237,12 +1650,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-07 11:17</t>
+          <t>2025-08-12 14:30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1664,526 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 领益智造2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-07 10:44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 智微智能2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>海思 深圳华强2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-07 13:54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 天赐材料2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰海通</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1813,7 +2745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2074,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2183,7 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2247,7 +3179,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2257,16 +3189,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>皇氏集团</t>
+          <t>奥飞娱乐</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002329</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.01</v>
+        <v>10.08</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2278,29 +3210,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-29 09:43</t>
+          <t>2025-08-26 09:41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>奥飞娱乐近期是否面临调整压力？奥飞娱乐2024年业绩受资产减值损失拖累，2025Q1经营表现稳健。然而，从技术指标看，主力资金流出0.13亿元，近5日主力资金流入0.91亿元，显示资金面存在分歧。业绩承压：2024年归母净利润大幅下滑资金流出：主力资金流出0.13亿元成本结构：90%股民成本在9.35元至10.02元尽管2025Q1经营稳健，但2024年资产减值损失拖累业绩，主力资金流出，显示市场对奥飞娱乐的短期信心有所动摇。投资者需关注公司未来业绩改善情况及市场资金动向。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月26日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>锐明技术</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2309,10 +3241,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.81</v>
+        <v>49.8</v>
       </c>
       <c r="F3" t="n">
-        <v>33.29</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2321,19 +3253,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-29 09:46</t>
+          <t>2025-08-26 09:41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
+          <t>锐明技术近期的市场表现是否预示着潜在风险？近期，锐明技术的主力资金流出情况值得关注。近5日主力资金流出0.41亿元，显示出市场资金对该股的谨慎态度。主力资金流出：近5日主力资金流出0.41亿元股民成本：90%股民的成本在45.75元--50.7元市场情绪：83.65%的股民收盘是盈利的尽管目前仍有83.65%的股民处于盈利状态，但主力资金的持续流出可能预示着市场对该股的短期信心不足。投资者需关注后续资金流向，以判断市场情绪的变化。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 锐明技术2025年08月26日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2343,19 +3275,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>82.75</v>
+        <v>9.18</v>
       </c>
       <c r="F4" t="n">
-        <v>33.29</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2364,41 +3296,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-29 11:18</t>
+          <t>2025-08-26 09:44</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
+          <t>御银股份是否正迎来新的发展机遇？近期政策动态和行业趋势为御银股份带来了积极信号。政策支持：上海市国资委专题学习会强调稳定币政策预期强化。技术应用：区块链技术在跨境贸易、供应链金融等领域的应用前景广阔。全球共振：中国香港《稳定币条例》落地，亚洲本币稳定币生态加速成型。综上所述，御银股份在政策和技术的双重推动下，有望迎来新的增长机遇。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 华西证券-计算机行业周报：上海学习稳定币，全球政策共振-250713</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙大网新</t>
+          <t>爱婴室</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.56</v>
+        <v>19.74</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2407,41 +3339,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-29 14:26</t>
+          <t>2025-08-26 10:43</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>换票 浙大网新2025年07月29日主力资金流</t>
+          <t>爱婴室爱婴20室20252年5一季度业绩年一季度业绩表现如何？线下改善线上表现如何？这是否驱动预增长，示着公司奶粉、未来的发展食品潜力、玩具？品类爱婴表现较室2优。02一季度财报5显示，年一季度爱婴业绩稳健室收入增长，和净利润收入和均实现同比增长，净利润均实现同比线下提升。门店和线下电商渠道门店和表现电商亮眼。线下渠道渠道齐发力，奶粉改善：、食品、玩具线下门店数量净等品类表现增1优异。1家至47线下渠道改善：2家线下门店数量，单净增店收入同比11+3.家至473%。线上增长强劲2家，单：电商店收入收入同比同比增长3.3+13%。.5%，成为电商收入增长重要增长：电商收入同比增长1驱动力。品类表现3.优异：5%，成为驱动奶粉收入同比+1增长的重要力量0.。品类9%，表现优异食品收入同比：奶粉收入+7同比增长1.60.%。综9%，食品收入同比增长上所述，爱7.婴室一季度6%。业绩稳健综上所述，，线下渠道和电商爱婴渠道齐室在2头并02进，为5年一季度公司未来展现了良好的增长增长奠定了坚实基础。风险势头，线下渠道和提示：电商渠道以上内容仅供参考的双轮驱动，以及，不构成投资建议核心品类的稳健表现，股市有风险，投资，为公司需谨慎。未来的发展奠定了坚实基础。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 公司点评报告：25Q1同店增长稳健渠道后续将重回扩张，携手万代打造第二增长曲线</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>海南华铁</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.95</v>
+        <v>11.65</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2450,12 +3382,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-29 14:44</t>
+          <t>2025-08-26 10:25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>海南华铁的未来走势是否面临不确定性？海南华铁近期的主力资金流入较为积极，但公司2024年净利润同比减少24.49%，2025年一季度净利润增速回正，显示出业绩波动较大。此外，公司拟发行20亿元债务融资工具，主要用于智算、低空业务及补充流动资金，这可能增加公司的财务负担。主力资金流入：近5日主力资金流入3.05亿元业绩波动：2024年净利润同比减少24.49%债务融资：拟发行20亿元债务融资工具综上所述，尽管海南华铁近期资金流入积极，但业绩波动较大，且拟发行的债务融资工具可能增加财务压力，投资者需谨慎对待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海南华铁2025年08月26日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2472,19 +3404,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方锆业</t>
+          <t>均胜电子</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.95</v>
+        <v>20.84</v>
       </c>
       <c r="F7" t="n">
-        <v>32.89</v>
+        <v>33</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2493,12 +3425,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-29 14:44</t>
+          <t>2025-08-26 13:43</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>小金属 东方锆业2025年07月29日主力资金流</t>
+          <t>智能驾驶＋机器人 国内领先智能汽车Tier1，机器人打开新增长点</t>
         </is>
       </c>
     </row>
@@ -2507,7 +3439,331 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002329</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:46</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:18</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:26</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>换票 浙大网新2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:44</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>小金属 东方锆业2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2573,7 +3829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2897,7 +4153,417 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 望变电气2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局 望变电气2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三安光电</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>碳化硅反内卷 三安光电2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万丰奥威</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-24 11:19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>去弱，换掉弱票。空出仓位做其他票 万丰奥威：公司立足全球市场，降低贸易壁垒风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>集采纠偏。麻醉镇痛药 人福医药2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>控制仓位 中联重科2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-24 14:41</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>消费电子，工业机器人 深市电子行业六成公司预喜，AI+显示巨头狂飙</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2961,29 +4627,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川发龙蟒</t>
+          <t>望变电气</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.6</v>
+        <v>14.57</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2992,12 +4658,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-21 10:32</t>
+          <t>2025-07-23 13:37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈，调仓 川发龙蟒2025年08月21日主力资金流</t>
+          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3006,7 +4672,397 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 三一重工2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:35</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3070,7 +5126,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3080,19 +5136,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>望变电气</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.51</v>
+        <v>6.31</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3101,19 +5157,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 10:04</t>
+          <t>2025-07-17 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>减仓 望变电气2025年07月24日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3123,16 +5179,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603967</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.71</v>
+        <v>6.31</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3144,12 +5200,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-24 10:08</t>
+          <t>2025-07-17 09:52</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3161,24 +5217,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>望变电气</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.55</v>
+        <v>4.63</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3187,19 +5243,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-24 10:28</t>
+          <t>2025-07-17 10:04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>全部出局 望变电气2025年07月24日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3209,19 +5265,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>三安光电</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.64</v>
+        <v>4.63</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3230,12 +5286,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-24 10:44</t>
+          <t>2025-07-17 10:04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>碳化硅反内卷 三安光电2025年07月24日主力资金流</t>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3252,16 +5308,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万丰奥威</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.81</v>
+        <v>20.92</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3273,12 +5329,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-24 11:19</t>
+          <t>2025-07-17 10:31</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>去弱，换掉弱票。空出仓位做其他票 万丰奥威：公司立足全球市场，降低贸易壁垒风险</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -3290,12 +5346,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>人福医药</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3304,10 +5360,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.27</v>
+        <v>20.92</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3316,12 +5372,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-24 13:32</t>
+          <t>2025-07-17 10:31</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>集采纠偏。麻醉镇痛药 人福医药2025年07月24日主力资金流</t>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
         </is>
       </c>
     </row>
@@ -3333,24 +5389,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中联重科</t>
+          <t>恒生电子</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.95</v>
+        <v>33.31</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3359,12 +5415,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-24 13:44</t>
+          <t>2025-07-17 13:44</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>控制仓位 中联重科2025年07月24日主力资金流</t>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3376,24 +5432,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9.06</v>
+        <v>16.26</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3402,12 +5458,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-24 14:41</t>
+          <t>2025-07-17 14:32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>消费电子，工业机器人 深市电子行业六成公司预喜，AI+显示巨头狂飙</t>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3416,13 +5472,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3480,43 +5536,258 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-16 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>603***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-23 13:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
+      <c r="E7" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-16 13:46</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -3525,13 +5796,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3589,7 +5860,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3599,19 +5870,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>三一重工</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.33</v>
+        <v>12.24</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3620,19 +5891,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 10:14</t>
+          <t>2025-07-15 09:20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>减仓 三一重工2025年07月22日主力资金流</t>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3642,19 +5913,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航锦科技</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>603001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.4</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3663,19 +5934,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:07</t>
+          <t>2025-07-15 09:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3685,19 +5956,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中联重科</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>603967</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.06</v>
+        <v>11.26</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3706,55 +5977,313 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-22 13:17</t>
+          <t>2025-07-15 09:49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>通力科技</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3763,7 +6292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3827,7 +6356,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3837,16 +6366,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>共进股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.68</v>
+        <v>13.46</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3858,41 +6387,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:35</t>
+          <t>2025-08-25 09:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+          <t>止盈 共进股份2025年08月25日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航锦科技</t>
+          <t>用友网络</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.66</v>
+        <v>17.14</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3901,12 +6430,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-18 13:55</t>
+          <t>2025-08-25 11:17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+          <t>药酒地产有色等降息受益风格强势导致跷跷板，不利持仓 组织优化全面收官，“AI至上”战略助推经营质量反转</t>
         </is>
       </c>
     </row>
@@ -3915,7 +6444,331 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3984,12 +6837,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3998,10 +6851,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.31</v>
+        <v>20.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4010,12 +6863,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-11 13:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4032,16 +6885,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>许继电气</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.31</v>
+        <v>21.91</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4053,19 +6906,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-11 13:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 大众交通2025年07月17日主力资金流</t>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4075,19 +6928,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.63</v>
+        <v>33.58</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4096,19 +6949,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-17 10:04</t>
+          <t>2025-07-11 13:16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4118,19 +6971,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.63</v>
+        <v>12.22</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4139,41 +6992,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-17 10:04</t>
+          <t>2025-07-11 11:48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.92</v>
+        <v>16.64</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4182,12 +7035,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-17 10:31</t>
+          <t>2025-07-11 10:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -4204,7 +7057,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>保利发展</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4213,7 +7066,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.92</v>
+        <v>8.33</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4225,12 +7078,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-17 10:31</t>
+          <t>2025-07-11 10:10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
         </is>
       </c>
     </row>
@@ -4242,24 +7095,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生电子</t>
+          <t>海格通信</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33.31</v>
+        <v>12.97</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4268,12 +7121,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-17 13:44</t>
+          <t>2025-07-11 13:43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
         </is>
       </c>
     </row>
@@ -4285,24 +7138,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>合锻智能</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.26</v>
+        <v>10.96</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4311,12 +7164,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-17 14:32</t>
+          <t>2025-07-11 13:59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>止损 合锻智能2025年07月17日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -4325,1561 +7178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:13</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-16 13:46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6238,776 +7537,6 @@
       <c r="I8" t="inlineStr">
         <is>
           <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>川发龙蟒</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-20 09:53</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>磷化工 开源证券-基础化工行业周报：库存持续释放，涤纶长丝市场走势上行-250505</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>法拉电子</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>113.29</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-20 11:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>仓位释放出来。 法拉电子2025年08月20日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>妙可蓝多</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-20 11:28</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>乳品 抢占B端乳品新蓝海：国产替代正当时</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
         </is>
       </c>
     </row>
@@ -7080,6 +7609,581 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>元利科技调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:19</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>粤宏远A调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>浙文互联调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-09 10:03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>荣晟环保调仓理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -7248,6 +8352,591 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>妙可蓝多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止损 妙可蓝多2025年08月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>共进股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>交换机 天风证券-计算机行业AI算力系列之交换机：算力网络稳定“核心”，助力AI高效发展-250625</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>92.89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 药明康德2025年08月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>用友网络</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ai应用 点评报告：“AI×数据×流程”原生一体加速企业AI落地</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-22 11:19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>钧达股份是否正迎来新的发展机遇？钧达股份近期发布H股发行聆讯后资料集，标志着其海外扩张计划迈出重要一步。海外产能推进：公司计划建设5GW光伏电池海外生产基地，强化盈利弹性。技术与渠道：募集资金将用于研发先进光伏电池技术及建立海外销售网络。市场表现：电气设备行业本周上涨0.57%，钧达股份作为行业龙头，有望受益于行业整体向好。综上所述，钧达股份的海外扩张计划和技术研发将为其带来新的增长动力，值得投资者关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 电力设备行业跟踪周报：人形国内外进展提速，固态前景广阔</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>川发龙蟒</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-21 10:32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈，调仓 川发龙蟒2025年08月21日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>川发龙蟒</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-20 09:53</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>磷化工 开源证券-基础化工行业周报：库存持续释放，涤纶长丝市场走势上行-250505</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>113.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-20 11:14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>仓位释放出来。 法拉电子2025年08月20日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>妙可蓝多</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-20 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>乳品 抢占B端乳品新蓝海：国产替代正当时</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7399,7 +9088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7723,7 +9412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7959,804 +9648,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>31.89</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 顺络电子：公司布局的高温燃料电池属于固体氧化物燃料电池行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>京北方</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>京北方股东人数减少，主力资金流入，是否意味着短期调整压力增大？以下为具体分析：一、股东人数减少：京北方股东人数减少5092户，环比下降5.55%，筹码趋向集中。二、主力资金流入：8月14日主力资金流入1.40亿元，近5日主力资金流入1.65亿元，显示资金面活跃。三、市场情绪：72.045%的股民收盘盈利，但前期支撑位19.850元和压力位27.700元的突破情况。京北方近期筹码集中，主力资金流入明显，但股价已接近压力位，短期调整压力增大。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>弘业期货</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>001***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>弘业期货能否在主力资金流入和政策红利下继续走强？以下为具体分析：一、主力资金流入：近5日主力资金流入0.25亿元，显示资金面积极。二、板块爆发：多元金融板块强势爆发，九鼎投资直线涨停，市场情绪高涨。三、政策红利：五大领域迎政策红利，利好多元金融板块。弘业期货目前走势较强，重点关注是否可以突破压力位13.180元，若能突破压力位并站稳，意味着上涨空间打开，否则股价可能遇阻回落。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 弘业期货2025年08月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-14 10:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5日线支撑弱于预期，腾出仓位换票 鲁西化工2025年08月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>京北方</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-14 14:14</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>京北方股东人数减少，筹码趋向集中，是否意味着股价将面临调整？以下为具体分析：一、主力资金流入：8月14日主力资金流入2.56亿元，近5日主力资金流入2.81亿元。二、股东人数减少：截止8月8日，公司股东人数为86638人，较上期减少5092户，环比下降5.55%。三、人均持仓增加：人均持仓9735股，上期人均持仓为9194股，环比增长5.88%。京北方近期主力资金持续流入，股东人数减少，人均持仓增加，筹码趋向集中，这些因素可能对股价产生影响，但需关注是否会出现调整。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 京北方2025年08月14日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:39</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 30+电池冷板重点企业揭秘</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>41.53</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:55</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>止盈 神州数码：公司是华为昇腾合作伙伴</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>科达利</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>118.59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>机器人 科达利2025年08月13日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>30.83</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-13 11:28</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ai数据中心新分支sofc 顺络电子2025年08月13日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人十液冷 券商观点|液冷行业跟踪：预计AI液冷将为产业链公司提供第二增长曲线</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:43</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥飞娱乐近期举办“奥飞动漫之夜”，是否意味着短期利好已兑现？以下为具体分析：一、重大活动举办：公司将于8月8日晚在东莞举办“奥飞动漫之夜”，作为2025年粤港澳大湾区动画电影周的开幕晚宴。二、重点项目发布：活动将分享动画生产经验并发布企业未来重点项目，提升市场关注度。三、媒体关注：南方都市报、新浪财经等媒体均有报道，增强市场影响力。奥飞娱乐通过举办“奥飞动漫之夜”提升市场关注度，但短期利好是否已兑现需进一步观察。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐：公司将于8月8日晚上在东莞举办“奥飞动漫之夜”</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:32</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 梦网科技2025年08月12日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:08</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>英伟达amd出口国内要交保护费，国产算力性价比提升 神州数码2025年08月12日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-12 14:30</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>化工涨价题材，甲酸 鲁西化工2025年08月12日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,43 +7,44 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,16 +530,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>三花智控</t>
+          <t>中信证券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.87</v>
+        <v>31.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -550,12 +551,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 09:53</t>
+          <t>2025-08-29 09:48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 三花智控2025年08月28日主力资金流</t>
+          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
         </is>
       </c>
     </row>
@@ -567,12 +568,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>通富微电</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -581,10 +582,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.77</v>
+        <v>13.33</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -593,12 +594,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 10:15</t>
+          <t>2025-08-29 09:54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 通富微电2025年08月28日主力资金流</t>
+          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
         </is>
       </c>
     </row>
@@ -610,12 +611,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>烽火通信</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -624,10 +625,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.59</v>
+        <v>27.53</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -636,12 +637,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 10:25</t>
+          <t>2025-08-29 10:27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
+          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
         </is>
       </c>
     </row>
@@ -658,16 +659,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信证券</t>
+          <t>创新医疗</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.03</v>
+        <v>23.48</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -679,12 +680,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 10:30</t>
+          <t>2025-08-29 10:34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
+          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
         </is>
       </c>
     </row>
@@ -696,38 +697,81 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:37</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>烽火通信</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="F7" t="n">
         <v>33</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:39</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-29 13:08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
         </is>
       </c>
     </row>
@@ -737,6 +781,330 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 元件行业上市公司董秘PK：胜业电气莫东霖薪酬全行业最低，仅为26.40万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:35</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 多氟多2025年08月18日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>止盈。控制仓位 季度利润同比高增，MIM业务加速释放利润弹性</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.43000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:56</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>人形人形机器人产业机器人产业的的快速发展快速发展，是否，是否为为恒立恒立液压带来了液压带来了新的增长新的增长机遇机遇？恒？恒立立液压液压作为作为线线性性关节领域的关节领域的领先企业领先企业，正，正受益受益于于人人形机器人形机器人产业的产业的快速发展快速发展。。近期近期，多，多个人形个人形机器人项目机器人项目取得取得重要进展重要进展，为，为行业注入行业注入了了新的活力新的活力。行业。行业动态动态：：人人形机器人形机器人-7-7月月2277日，日，领益领益智造智造与与强强脑科技脑科技达成战略合作达成战略合作，，聚焦聚焦灵灵巧手巧手等硬件领域；7等硬件领域；7月2月27日7日，，腾讯联合腾讯联合福田实验室福田实验室发布发布开放平台开放平台TairosTairos，打造，打造机器人机器人““钛钛螺丝”螺丝”；7；7月月2277日，日，湖北设立湖北设立101000亿元母亿元母基金，基金，聚焦人聚焦人形形机器人机器人核心技术核心技术与应用与应用领域。领域。政策政策支持支持：：7月7月3311日日人，，形国国机器人领域常会常会迎来哪些大力推进人工智能大力推进人工智能新规模化商业化规模化商业化机遇，应用应用恒立，为，为液压行业提供了行业提供了能否从中受益政策保障政策保障？。。技术恒立技术突破突破液压作为：：FigureFigure0线性02展示关节领域的2展示家庭场地领先企业家庭场地落地可能，落地，近期行业可能，柔性操作动态为其柔性操作、人带来了新的、人机交互增长契机机交互与。与动态响应行业趋势动态响应能力强大：人能力强大，机器形机器人，机器人大脑领域迎来人大脑成熟政策成熟，看好与资本，看好其后续双重支持其后续场景落地7场景落地与月与量产2量产进度进度。。7日恒立恒立，湖北液压作为液压作为设立1线性线性0关节关节0亿元领域的领先领域的领先母基金企业，企业，，聚焦有望在有望在人形人形人机器人核心技术机器人形机器人与产业产业应用人形的快速发展的领域。机器人领域中快速发展中7受益。受益。月3随着行业随着行业1日迎来哪些新机遇技术的技术的，国，恒不断不断常立液压突破和突破和会大力推进能否政策的政策的人工智能规模化从中受益大力支持，大力支持，商业化？恒恒立恒应用，为立液压液压立液压行业作为的的人形线性市场市场前景提供了政策保障机器人产业关节领域的前景值得值得。的快速发展领先企业期待。期待。公司优势，，风险提示风险提示：技术是否为近期行业：：成熟恒立动态为其以上内容，应用场景液压带来了带来了新的仅供参考，加速以上内容仅供参考，新的增长不构成落地Figure不构成增长机遇契机。投资02投资建议？恒行业趋势建议，展示，股市立液压：人股市有家庭场地有作为线形风险，落地可能风险，性机器人领域投资需，柔性投资需关节领域的迎来政策谨慎操作谨慎。领先企业与资本。、人，正双重受益支持于人7月27形机器人产业的快速发展。日，湖北设立近期1，多00亿元机交互与动态响应能力强大，机器人大脑成熟，个人形看好其后续母基金机器人项目取得 制造成长周报（第25期）：国常会推进深入实施“人工智能+”行动，湖北设立百亿元人形机器人母基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>114.93</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-18 11:02</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>薄膜电容 营收稳健增长，关注下半年毛利率改善</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-18 14:23</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>福莱新材近期是否面临调整压力？近期市场对福莱新材的关注度有所下降，主力资金流入减少，技术指标显示短期趋势可能转弱。主力资金流入减少：近5日主力资金流入0.33亿元，较前期有所减少。技术指标转弱：个股出现kdj金叉技术形态指标，但短期支撑位31.250元面临考验。行业背景：人形机器人板块短期低迷，主要受产业端订单与指引扰动，市场情绪有所波动。综上所述，福莱新材短期内可能面临调整压力，投资者需关注市场情绪变化和技术指标的进一步表现。风险提示：以上仅供参考，不构成投资建议，股市有风险，投资需谨慎。 福莱新材2025年08月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -974,7 +1342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1255,7 +1623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +2142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2012,7 +2380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2293,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2695,158 +3063,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2919,7 +3135,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2929,7 +3145,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2938,10 +3154,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2950,12 +3166,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2967,12 +3183,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2981,10 +3197,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2993,12 +3209,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3071,43 +3287,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3180,7 +3439,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3190,16 +3449,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海南华铁</t>
+          <t>三花智控</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.51</v>
+        <v>30.87</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3211,29 +3470,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-27 09:54</t>
+          <t>2025-08-28 09:53</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>调仓换股 算力收入落地，25Q1利润增速回正</t>
+          <t>止盈 三花智控2025年08月28日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>通富微电</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3242,10 +3501,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.89</v>
+        <v>29.77</v>
       </c>
       <c r="F3" t="n">
-        <v>21.26</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3254,12 +3513,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-27 09:55</t>
+          <t>2025-08-28 10:15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>一行白鹭上青天 前瞻布局机器人+AI，“汽车+泛工业”双轮驱动</t>
+          <t>离场 通富微电2025年08月28日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3530,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>均胜电子</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3285,10 +3544,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.69</v>
+        <v>33.59</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3297,12 +3556,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-27 09:58</t>
+          <t>2025-08-28 10:25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>止盈 定位为“汽车+机器人Tier1”，在手订单充沛</t>
+          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
         </is>
       </c>
     </row>
@@ -3319,16 +3578,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>三花智控</t>
+          <t>中信证券</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.18</v>
+        <v>31.03</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -3340,41 +3599,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-27 10:08</t>
+          <t>2025-08-28 10:30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>大市值风格机器人十汽车零部件 全球热管理龙头，机器人业务扬帆起航</t>
+          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>弘业期货</t>
+          <t>烽火通信</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.02</v>
+        <v>27.7</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3383,141 +3642,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-27 10:29</t>
+          <t>2025-08-28 10:39</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>半江瑟瑟半江红 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:30</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>做个差价，预期五个点给不给？ 华西证券-计算机行业周报：链上资产，RWA应用深化-250629</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>通富微电</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:36</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体大市值风格 核心客户稳定，受益AI浪潮</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-中线龙头</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>慧智微-U</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-27 13:04</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>慧智微-U近期表现如何？市场新增关注射频领域，慧智微-U作为射频领域的代表企业，股价上涨11.2%，表现亮眼。这是否意味着射频领域将迎来新的发展机遇？慧智微-U作为射频领域的领先企业，近期受到市场高度关注。射频板块整体表现强劲，唯捷+20%，卓胜微+13.7%，慧智微-U+11.2%。市场情绪：反制情绪推动模拟板块大涨市场情绪：反制情绪推动模拟板块大涨，华峰测控+14.2%，华虹半导体+19.8%。行业趋势：射频领域迎来新机遇行业趋势：射频领域迎来新机遇，市场新增关注射频，慧智微-U作为射频领域的代表企业，有望受益于行业增长。总结：慧智微-U作为射频领域的领先企业，近期受到市场高度关注，股价表现亮眼。随着射频领域迎来新的发展机遇，慧智微-U有望继续受益。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 【DW电子】每日复盘每日新-电子4.11</t>
+          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
         </is>
       </c>
     </row>
@@ -3600,16 +3730,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3621,12 +3751,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3636,6 +3766,115 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3959,7 +4198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4025,7 +4264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4349,7 +4588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4759,7 +4998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4868,7 +5107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5106,7 +5345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5258,7 +5497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5668,7 +5907,417 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:54</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>调仓换股 算力收入落地，25Q1利润增速回正</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>一行白鹭上青天 前瞻布局机器人+AI，“汽车+泛工业”双轮驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>止盈 定位为“汽车+机器人Tier1”，在手订单充沛</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>大市值风格机器人十汽车零部件 全球热管理龙头，机器人业务扬帆起航</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>半江瑟瑟半江红 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>做个差价，预期五个点给不给？ 华西证券-计算机行业周报：链上资产，RWA应用深化-250629</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:36</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体大市值风格 核心客户稳定，受益AI浪潮</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>慧智微-U</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-27 13:04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>慧智微-U近期表现如何？市场新增关注射频领域，慧智微-U作为射频领域的代表企业，股价上涨11.2%，表现亮眼。这是否意味着射频领域将迎来新的发展机遇？慧智微-U作为射频领域的领先企业，近期受到市场高度关注。射频板块整体表现强劲，唯捷+20%，卓胜微+13.7%，慧智微-U+11.2%。市场情绪：反制情绪推动模拟板块大涨市场情绪：反制情绪推动模拟板块大涨，华峰测控+14.2%，华虹半导体+19.8%。行业趋势：射频领域迎来新机遇行业趋势：射频领域迎来新机遇，市场新增关注射频，慧智微-U作为射频领域的代表企业，有望受益于行业增长。总结：慧智微-U作为射频领域的领先企业，近期受到市场高度关注，股价表现亮眼。随着射频领域迎来新的发展机遇，慧智微-U有望继续受益。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 【DW电子】每日复盘每日新-电子4.11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5992,7 +6641,503 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6056,29 +7201,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>奥飞娱乐</t>
+          <t>XD东方创</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.08</v>
+        <v>7.48</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6087,29 +7232,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-26 09:41</t>
+          <t>2025-07-14 14:43</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>奥飞娱乐近期是否面临调整压力？奥飞娱乐2024年业绩受资产减值损失拖累，2025Q1经营表现稳健。然而，从技术指标看，主力资金流出0.13亿元，近5日主力资金流入0.91亿元，显示资金面存在分歧。业绩承压：2024年归母净利润大幅下滑资金流出：主力资金流出0.13亿元成本结构：90%股民成本在9.35元至10.02元尽管2025Q1经营稳健，但2024年资产减值损失拖累业绩，主力资金流出，显示市场对奥飞娱乐的短期信心有所动摇。投资者需关注公司未来业绩改善情况及市场资金动向。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月26日主力资金流</t>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>国轩高科</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6118,10 +7263,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>49.8</v>
+        <v>30.04</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6130,41 +7275,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-26 09:41</t>
+          <t>2025-07-14 14:29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>锐明技术近期的市场表现是否预示着潜在风险？近期，锐明技术的主力资金流出情况值得关注。近5日主力资金流出0.41亿元，显示出市场资金对该股的谨慎态度。主力资金流出：近5日主力资金流出0.41亿元股民成本：90%股民的成本在45.75元--50.7元市场情绪：83.65%的股民收盘是盈利的尽管目前仍有83.65%的股民处于盈利状态，但主力资金的持续流出可能预示着市场对该股的短期信心不足。投资者需关注后续资金流向，以判断市场情绪的变化。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 锐明技术2025年08月26日主力资金流</t>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9.18</v>
+        <v>33.47</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6173,41 +7318,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-26 09:44</t>
+          <t>2025-07-14 14:12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>御银股份是否正迎来新的发展机遇？近期政策动态和行业趋势为御银股份带来了积极信号。政策支持：上海市国资委专题学习会强调稳定币政策预期强化。技术应用：区块链技术在跨境贸易、供应链金融等领域的应用前景广阔。全球共振：中国香港《稳定币条例》落地，亚洲本币稳定币生态加速成型。综上所述，御银股份在政策和技术的双重推动下，有望迎来新的增长机遇。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 华西证券-计算机行业周报：上海学习稳定币，全球政策共振-250713</t>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>爱婴室</t>
+          <t>雪人集团</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.74</v>
+        <v>11.09</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6216,19 +7361,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-26 10:43</t>
+          <t>2025-07-14 14:04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>爱婴室爱婴20室20252年5一季度业绩年一季度业绩表现如何？线下改善线上表现如何？这是否驱动预增长，示着公司奶粉、未来的发展食品潜力、玩具？品类爱婴表现较室2优。02一季度财报5显示，年一季度爱婴业绩稳健室收入增长，和净利润收入和均实现同比增长，净利润均实现同比线下提升。门店和线下电商渠道门店和表现电商亮眼。线下渠道渠道齐发力，奶粉改善：、食品、玩具线下门店数量净等品类表现增1优异。1家至47线下渠道改善：2家线下门店数量，单净增店收入同比11+3.家至473%。线上增长强劲2家，单：电商店收入收入同比同比增长3.3+13%。.5%，成为电商收入增长重要增长：电商收入同比增长1驱动力。品类表现3.优异：5%，成为驱动奶粉收入同比+1增长的重要力量0.。品类9%，表现优异食品收入同比：奶粉收入+7同比增长1.60.%。综9%，食品收入同比增长上所述，爱7.婴室一季度6%。业绩稳健综上所述，，线下渠道和电商爱婴渠道齐室在2头并02进，为5年一季度公司未来展现了良好的增长增长奠定了坚实基础。风险势头，线下渠道和提示：电商渠道以上内容仅供参考的双轮驱动，以及，不构成投资建议核心品类的稳健表现，股市有风险，投资，为公司需谨慎。未来的发展奠定了坚实基础。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 公司点评报告：25Q1同店增长稳健渠道后续将重回扩张，携手万代打造第二增长曲线</t>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6238,19 +7383,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海南华铁</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.65</v>
+        <v>21.26</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6259,41 +7404,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-26 10:25</t>
+          <t>2025-07-14 10:56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>海南华铁的未来走势是否面临不确定性？海南华铁近期的主力资金流入较为积极，但公司2024年净利润同比减少24.49%，2025年一季度净利润增速回正，显示出业绩波动较大。此外，公司拟发行20亿元债务融资工具，主要用于智算、低空业务及补充流动资金，这可能增加公司的财务负担。主力资金流入：近5日主力资金流入3.05亿元业绩波动：2024年净利润同比减少24.49%债务融资：拟发行20亿元债务融资工具综上所述，尽管海南华铁近期资金流入积极，但业绩波动较大，且拟发行的债务融资工具可能增加财务压力，投资者需谨慎对待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海南华铁2025年08月26日主力资金流</t>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>均胜电子</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.84</v>
+        <v>4.25</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -6302,12 +7447,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-26 13:43</t>
+          <t>2025-07-14 10:11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>智能驾驶＋机器人 国内领先智能汽车Tier1，机器人打开新增长点</t>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6316,827 +7461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7546,7 +7871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7913,7 +8238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8151,7 +8476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8248,236 +8573,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -8552,6 +8647,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -8720,6 +9045,330 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:41</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>奥飞娱乐近期是否面临调整压力？奥飞娱乐2024年业绩受资产减值损失拖累，2025Q1经营表现稳健。然而，从技术指标看，主力资金流出0.13亿元，近5日主力资金流入0.91亿元，显示资金面存在分歧。业绩承压：2024年归母净利润大幅下滑资金流出：主力资金流出0.13亿元成本结构：90%股民成本在9.35元至10.02元尽管2025Q1经营稳健，但2024年资产减值损失拖累业绩，主力资金流出，显示市场对奥飞娱乐的短期信心有所动摇。投资者需关注公司未来业绩改善情况及市场资金动向。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月26日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:41</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>锐明技术近期的市场表现是否预示着潜在风险？近期，锐明技术的主力资金流出情况值得关注。近5日主力资金流出0.41亿元，显示出市场资金对该股的谨慎态度。主力资金流出：近5日主力资金流出0.41亿元股民成本：90%股民的成本在45.75元--50.7元市场情绪：83.65%的股民收盘是盈利的尽管目前仍有83.65%的股民处于盈利状态，但主力资金的持续流出可能预示着市场对该股的短期信心不足。投资者需关注后续资金流向，以判断市场情绪的变化。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 锐明技术2025年08月26日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:44</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>御银股份是否正迎来新的发展机遇？近期政策动态和行业趋势为御银股份带来了积极信号。政策支持：上海市国资委专题学习会强调稳定币政策预期强化。技术应用：区块链技术在跨境贸易、供应链金融等领域的应用前景广阔。全球共振：中国香港《稳定币条例》落地，亚洲本币稳定币生态加速成型。综上所述，御银股份在政策和技术的双重推动下，有望迎来新的增长机遇。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 华西证券-计算机行业周报：上海学习稳定币，全球政策共振-250713</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>爱婴室</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-26 10:43</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>爱婴室爱婴20室20252年5一季度业绩年一季度业绩表现如何？线下改善线上表现如何？这是否驱动预增长，示着公司奶粉、未来的发展食品潜力、玩具？品类爱婴表现较室2优。02一季度财报5显示，年一季度爱婴业绩稳健室收入增长，和净利润收入和均实现同比增长，净利润均实现同比线下提升。门店和线下电商渠道门店和表现电商亮眼。线下渠道渠道齐发力，奶粉改善：、食品、玩具线下门店数量净等品类表现增1优异。1家至47线下渠道改善：2家线下门店数量，单净增店收入同比11+3.家至473%。线上增长强劲2家，单：电商店收入收入同比同比增长3.3+13%。.5%，成为电商收入增长重要增长：电商收入同比增长1驱动力。品类表现3.优异：5%，成为驱动奶粉收入同比+1增长的重要力量0.。品类9%，表现优异食品收入同比：奶粉收入+7同比增长1.60.%。综9%，食品收入同比增长上所述，爱7.婴室一季度6%。业绩稳健综上所述，，线下渠道和电商爱婴渠道齐室在2头并02进，为5年一季度公司未来展现了良好的增长增长奠定了坚实基础。风险势头，线下渠道和提示：电商渠道以上内容仅供参考的双轮驱动，以及，不构成投资建议核心品类的稳健表现，股市有风险，投资，为公司需谨慎。未来的发展奠定了坚实基础。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 公司点评报告：25Q1同店增长稳健渠道后续将重回扩张，携手万代打造第二增长曲线</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-26 10:25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>海南华铁的未来走势是否面临不确定性？海南华铁近期的主力资金流入较为积极，但公司2024年净利润同比减少24.49%，2025年一季度净利润增速回正，显示出业绩波动较大。此外，公司拟发行20亿元债务融资工具，主要用于智算、低空业务及补充流动资金，这可能增加公司的财务负担。主力资金流入：近5日主力资金流入3.05亿元业绩波动：2024年净利润同比减少24.49%债务融资：拟发行20亿元债务融资工具综上所述，尽管海南华铁近期资金流入积极，但业绩波动较大，且拟发行的债务融资工具可能增加财务压力，投资者需谨慎对待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海南华铁2025年08月26日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-26 13:43</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>智能驾驶＋机器人 国内领先智能汽车Tier1，机器人打开新增长点</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8871,7 +9520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9152,7 +9801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9261,7 +9910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9456,7 +10105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9606,328 +10255,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金安国纪</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-18 09:30</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 元件行业上市公司董秘PK：胜业电气莫东霖薪酬全行业最低，仅为26.40万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-18 09:35</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>止盈 多氟多2025年08月18日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东睦股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-18 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>止盈。控制仓位 季度利润同比高增，MIM业务加速释放利润弹性</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒立液压</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>76.43000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-18 10:56</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>人形人形机器人产业机器人产业的的快速发展快速发展，是否，是否为为恒立恒立液压带来了液压带来了新的增长新的增长机遇机遇？恒？恒立立液压液压作为作为线线性性关节领域的关节领域的领先企业领先企业，正，正受益受益于于人人形机器人形机器人产业的产业的快速发展快速发展。。近期近期，多，多个人形个人形机器人项目机器人项目取得取得重要进展重要进展，为，为行业注入行业注入了了新的活力新的活力。行业。行业动态动态：：人人形机器人形机器人-7-7月月2277日，日，领益领益智造智造与与强强脑科技脑科技达成战略合作达成战略合作，，聚焦聚焦灵灵巧手巧手等硬件领域；7等硬件领域；7月2月27日7日，，腾讯联合腾讯联合福田实验室福田实验室发布发布开放平台开放平台TairosTairos，打造，打造机器人机器人““钛钛螺丝”螺丝”；7；7月月2277日，日，湖北设立湖北设立101000亿元母亿元母基金，基金，聚焦人聚焦人形形机器人机器人核心技术核心技术与应用与应用领域。领域。政策政策支持支持：：7月7月3311日日人，，形国国机器人领域常会常会迎来哪些大力推进人工智能大力推进人工智能新规模化商业化规模化商业化机遇，应用应用恒立，为，为液压行业提供了行业提供了能否从中受益政策保障政策保障？。。技术恒立技术突破突破液压作为：：FigureFigure0线性02展示关节领域的2展示家庭场地领先企业家庭场地落地可能，落地，近期行业可能，柔性操作动态为其柔性操作、人带来了新的、人机交互增长契机机交互与。与动态响应行业趋势动态响应能力强大：人能力强大，机器形机器人，机器人大脑领域迎来人大脑成熟政策成熟，看好与资本，看好其后续双重支持其后续场景落地7场景落地与月与量产2量产进度进度。。7日恒立恒立，湖北液压作为液压作为设立1线性线性0关节关节0亿元领域的领先领域的领先母基金企业，企业，，聚焦有望在有望在人形人形人机器人核心技术机器人形机器人与产业产业应用人形的快速发展的领域。机器人领域中快速发展中7受益。受益。月3随着行业随着行业1日迎来哪些新机遇技术的技术的，国，恒不断不断常立液压突破和突破和会大力推进能否政策的政策的人工智能规模化从中受益大力支持，大力支持，商业化？恒恒立恒应用，为立液压液压立液压行业作为的的人形线性市场市场前景提供了政策保障机器人产业关节领域的前景值得值得。的快速发展领先企业期待。期待。公司优势，，风险提示风险提示：技术是否为近期行业：：成熟恒立动态为其以上内容，应用场景液压带来了带来了新的仅供参考，加速以上内容仅供参考，新的增长不构成落地Figure不构成增长机遇契机。投资02投资建议？恒行业趋势建议，展示，股市立液压：人股市有家庭场地有作为线形风险，落地可能风险，性机器人领域投资需，柔性投资需关节领域的迎来政策谨慎操作谨慎。领先企业与资本。、人，正双重受益支持于人7月27形机器人产业的快速发展。日，湖北设立近期1，多00亿元机交互与动态响应能力强大，机器人大脑成熟，个人形看好其后续母基金机器人项目取得 制造成长周报（第25期）：国常会推进深入实施“人工智能+”行动，湖北设立百亿元人形机器人母基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>法拉电子</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>114.93</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-18 11:02</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>薄膜电容 营收稳健增长，关注下半年毛利率改善</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>605***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-18 14:23</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>福莱新材近期是否面临调整压力？近期市场对福莱新材的关注度有所下降，主力资金流入减少，技术指标显示短期趋势可能转弱。主力资金流入减少：近5日主力资金流入0.33亿元，较前期有所减少。技术指标转弱：个股出现kdj金叉技术形态指标，但短期支撑位31.250元面临考验。行业背景：人形机器人板块短期低迷，主要受产业端订单与指引扰动，市场情绪有所波动。综上所述，福莱新材短期内可能面临调整压力，投资者需关注市场情绪变化和技术指标的进一步表现。风险提示：以上仅供参考，不构成投资建议，股市有风险，投资需谨慎。 福莱新材2025年08月18日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,44 +7,45 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="39" state="visible" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,24 +526,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信证券</t>
+          <t>深桑达A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.5</v>
+        <v>26.97</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -551,12 +552,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 09:48</t>
+          <t>2025-09-01 09:31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
+          <t>云 东吴证券-计算机行业点评报告：Scale AI，AI时代卖水人-250804</t>
         </is>
       </c>
     </row>
@@ -568,7 +569,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -582,10 +583,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.33</v>
+        <v>13.8</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -594,12 +595,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-29 09:54</t>
+          <t>2025-09-01 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
+          <t>止盈 有色锆概念资金剧烈分化：盛和资源逆势吸金6184万，东方锆业单日撤离1.5亿创纪录</t>
         </is>
       </c>
     </row>
@@ -616,16 +617,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>烽火通信</t>
+          <t>创新医疗</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.53</v>
+        <v>23.32</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -637,19 +638,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-29 10:27</t>
+          <t>2025-09-01 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
+          <t>调仓 创新医疗2025年09月01日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-中线龙头</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -659,19 +660,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创新医疗</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.48</v>
+        <v>12.8</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -680,12 +681,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-29 10:34</t>
+          <t>2025-09-01 10:21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
+          <t>博敏电子近期的融资数据是否预示着新的投资机会？8月29日，博敏电子获融资买入1.23亿元，占当日买入金额的19.62%。融资买入活跃：8月29日融资买入额达1.23亿元融资余额高位：当前融资余额5.50亿元，占流通市值7.40%历史分位水平：融资余额超过历史90%分位水平博敏电子近期融资买入活跃，融资余额处于高位，且超过历史90%分位水平，显示出市场资金对该股的积极态度。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：8月29日获融资买入1.23亿元，占当日流入资金比例为19.62%</t>
         </is>
       </c>
     </row>
@@ -697,12 +698,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -711,10 +712,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.42</v>
+        <v>41.27</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -723,55 +724,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-29 10:37</t>
+          <t>2025-09-01 11:23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>蔚蓝锂芯</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 13:08</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
+          <t>先进封装hbm 公司信息更新报告：下游需求回暖，高端先进封装进入量产阶段</t>
         </is>
       </c>
     </row>
@@ -781,6 +739,158 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>80.41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-19 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>恒立液压近期的市场表现是否预示着潜在风险？恒立液压近期的资金流向和融资数据引发了市场关注。主力资金流入流出频繁，技术指标出现金叉，但整体趋势仍需谨慎观察。主力资金波动：近5日主力资金流出0.06亿元融资买入活跃：8月18日获融资买入6482.28万元尽管技术指标显示kdj金叉，但主力资金的流出和融资买入的活跃度表明市场对恒立液压的态度存在分歧。投资者需关注后续资金流向和技术指标的变化，以判断市场的真实意图。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 恒立液压2025年08月19日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-19 09:40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>海南华铁的国际化布局是否将迎来新的机遇？海南华铁正积极布局国际化战略，通过多项举措提升核心竞争力。公司计划在新加坡交易所上市，这将为公司带来新的发展机遇。RWA代币化：RWA代币化成为数字金融核心发展方向，为海南华铁提供了新的增长点。新加坡上市：公司拟在新加坡上市，借助当地完善的AI基础设施，加速国际化进程。市场前景：新加坡在AI基础设施方面全球领先，为海南华铁的海外业务拓展提供了良好环境。综上所述，海南华铁通过RWA代币化和新加坡上市，有望在国际市场上取得突破，提升品牌影响力和核心竞争力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 RWA破局，踏上资产数字化新征程</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1104,7 +1214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1342,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1623,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1861,7 +1971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2142,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2380,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2661,7 +2771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,158 +3173,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3245,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3297,7 +3255,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3306,10 +3264,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3318,12 +3276,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3293,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3349,10 +3307,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3361,12 +3319,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3449,16 +3407,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>三花智控</t>
+          <t>中信证券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.87</v>
+        <v>31.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3470,12 +3428,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 09:53</t>
+          <t>2025-08-29 09:48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 三花智控2025年08月28日主力资金流</t>
+          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3445,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>通富微电</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3501,10 +3459,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.77</v>
+        <v>13.33</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3513,12 +3471,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 10:15</t>
+          <t>2025-08-29 09:54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 通富微电2025年08月28日主力资金流</t>
+          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
         </is>
       </c>
     </row>
@@ -3530,12 +3488,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>烽火通信</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3544,10 +3502,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.59</v>
+        <v>27.53</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3556,12 +3514,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 10:25</t>
+          <t>2025-08-29 10:27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
+          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3536,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信证券</t>
+          <t>创新医疗</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.03</v>
+        <v>23.48</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -3599,12 +3557,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 10:30</t>
+          <t>2025-08-29 10:34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
+          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
         </is>
       </c>
     </row>
@@ -3616,38 +3574,81 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:37</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>烽火通信</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="F7" t="n">
         <v>33</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:39</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-29 13:08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,43 +3721,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3839,16 +3883,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3860,12 +3904,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3875,6 +3919,115 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4198,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4264,7 +4417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4588,7 +4741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4998,7 +5151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5107,7 +5260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5345,7 +5498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5497,7 +5650,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 三花智控2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 通富微电2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:25</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:39</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5907,7 +6341,1151 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-16 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-16 13:46</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5971,29 +7549,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海南华铁</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.51</v>
+        <v>20.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6002,41 +7580,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-27 09:54</t>
+          <t>2025-07-11 13:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>调仓换股 算力收入落地，25Q1利润增速回正</t>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>许继电气</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.89</v>
+        <v>21.91</v>
       </c>
       <c r="F3" t="n">
-        <v>21.26</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6045,12 +7623,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-27 09:55</t>
+          <t>2025-07-11 13:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>一行白鹭上青天 前瞻布局机器人+AI，“汽车+泛工业”双轮驱动</t>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
         </is>
       </c>
     </row>
@@ -6062,12 +7640,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>均胜电子</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6076,10 +7654,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.69</v>
+        <v>33.58</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6088,19 +7666,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-27 09:58</t>
+          <t>2025-07-11 13:16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>止盈 定位为“汽车+机器人Tier1”，在手订单充沛</t>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6110,19 +7688,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>三花智控</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.18</v>
+        <v>12.22</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6131,38 +7709,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-27 10:08</t>
+          <t>2025-07-11 11:48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>大市值风格机器人十汽车零部件 全球热管理龙头，机器人业务扬帆起航</t>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>弘业期货</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.02</v>
+        <v>16.64</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -6174,41 +7752,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-27 10:29</t>
+          <t>2025-07-11 10:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>半江瑟瑟半江红 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>保利发展</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8.81</v>
+        <v>8.33</v>
       </c>
       <c r="F7" t="n">
-        <v>18.77</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -6217,12 +7795,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-27 10:30</t>
+          <t>2025-07-11 10:10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>做个差价，预期五个点给不给？ 华西证券-计算机行业周报：链上资产，RWA应用深化-250629</t>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
         </is>
       </c>
     </row>
@@ -6234,12 +7812,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>通富微电</t>
+          <t>海格通信</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6248,10 +7826,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.1</v>
+        <v>12.97</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -6260,41 +7838,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-27 10:36</t>
+          <t>2025-07-11 13:43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>半导体大市值风格 核心客户稳定，受益AI浪潮</t>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>慧智微-U</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11.22</v>
+        <v>10.96</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -6303,12 +7881,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-27 13:04</t>
+          <t>2025-07-11 13:59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>慧智微-U近期表现如何？市场新增关注射频领域，慧智微-U作为射频领域的代表企业，股价上涨11.2%，表现亮眼。这是否意味着射频领域将迎来新的发展机遇？慧智微-U作为射频领域的领先企业，近期受到市场高度关注。射频板块整体表现强劲，唯捷+20%，卓胜微+13.7%，慧智微-U+11.2%。市场情绪：反制情绪推动模拟板块大涨市场情绪：反制情绪推动模拟板块大涨，华峰测控+14.2%，华虹半导体+19.8%。行业趋势：射频领域迎来新机遇行业趋势：射频领域迎来新机遇，市场新增关注射频，慧智微-U作为射频领域的代表企业，有望受益于行业增长。总结：慧智微-U作为射频领域的领先企业，近期受到市场高度关注，股价表现亮眼。随着射频领域迎来新的发展机遇，慧智微-U有望继续受益。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 【DW电子】每日复盘每日新-电子4.11</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -6317,1561 +7895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:13</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-16 13:46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8238,7 +8262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8476,7 +8500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8573,236 +8597,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -8877,6 +8671,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -9045,6 +9069,416 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:54</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>调仓换股 算力收入落地，25Q1利润增速回正</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>一行白鹭上青天 前瞻布局机器人+AI，“汽车+泛工业”双轮驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>止盈 定位为“汽车+机器人Tier1”，在手订单充沛</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>大市值风格机器人十汽车零部件 全球热管理龙头，机器人业务扬帆起航</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>半江瑟瑟半江红 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>做个差价，预期五个点给不给？ 华西证券-计算机行业周报：链上资产，RWA应用深化-250629</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:36</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体大市值风格 核心客户稳定，受益AI浪潮</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>慧智微-U</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-27 13:04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>慧智微-U近期表现如何？市场新增关注射频领域，慧智微-U作为射频领域的代表企业，股价上涨11.2%，表现亮眼。这是否意味着射频领域将迎来新的发展机遇？慧智微-U作为射频领域的领先企业，近期受到市场高度关注。射频板块整体表现强劲，唯捷+20%，卓胜微+13.7%，慧智微-U+11.2%。市场情绪：反制情绪推动模拟板块大涨市场情绪：反制情绪推动模拟板块大涨，华峰测控+14.2%，华虹半导体+19.8%。行业趋势：射频领域迎来新机遇行业趋势：射频领域迎来新机遇，市场新增关注射频，慧智微-U作为射频领域的代表企业，有望受益于行业增长。总结：慧智微-U作为射频领域的领先企业，近期受到市场高度关注，股价表现亮眼。随着射频领域迎来新的发展机遇，慧智微-U有望继续受益。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 【DW电子】每日复盘每日新-电子4.11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9368,7 +9802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9520,7 +9954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9801,7 +10235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9910,7 +10344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10103,156 +10537,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒立液压</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>80.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-19 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>恒立液压近期的市场表现是否预示着潜在风险？恒立液压近期的资金流向和融资数据引发了市场关注。主力资金流入流出频繁，技术指标出现金叉，但整体趋势仍需谨慎观察。主力资金波动：近5日主力资金流出0.06亿元融资买入活跃：8月18日获融资买入6482.28万元尽管技术指标显示kdj金叉，但主力资金的流出和融资买入的活跃度表明市场对恒立液压的态度存在分歧。投资者需关注后续资金流向和技术指标的变化，以判断市场的真实意图。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 恒立液压2025年08月19日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海南华铁</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-19 09:40</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>海南华铁的国际化布局是否将迎来新的机遇？海南华铁正积极布局国际化战略，通过多项举措提升核心竞争力。公司计划在新加坡交易所上市，这将为公司带来新的发展机遇。RWA代币化：RWA代币化成为数字金融核心发展方向，为海南华铁提供了新的增长点。新加坡上市：公司拟在新加坡上市，借助当地完善的AI基础设施，加速国际化进程。市场前景：新加坡在AI基础设施方面全球领先，为海南华铁的海外业务拓展提供了良好环境。综上所述，海南华铁通过RWA代币化和新加坡上市，有望在国际市场上取得突破，提升品牌影响力和核心竞争力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 RWA破局，踏上资产数字化新征程</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,45 +7,46 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,29 +522,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>深桑达A</t>
+          <t>弘业期货</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>001***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.97</v>
+        <v>11.8</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -552,41 +553,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-01 09:31</t>
+          <t>2025-09-02 13:28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>云 东吴证券-计算机行业点评报告：Scale AI，AI时代卖水人-250804</t>
+          <t>切换部分仓位到机器人 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方锆业</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>605***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.8</v>
+        <v>32.97</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20.16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -595,141 +596,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-01 09:30</t>
+          <t>2025-09-02 13:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>止盈 有色锆概念资金剧烈分化：盛和资源逆势吸金6184万，东方锆业单日撤离1.5亿创纪录</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创新医疗</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>调仓 创新医疗2025年09月01日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-中线龙头</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-01 10:21</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>博敏电子近期的融资数据是否预示着新的投资机会？8月29日，博敏电子获融资买入1.23亿元，占当日买入金额的19.62%。融资买入活跃：8月29日融资买入额达1.23亿元融资余额高位：当前融资余额5.50亿元，占流通市值7.40%历史分位水平：融资余额超过历史90%分位水平博敏电子近期融资买入活跃，融资余额处于高位，且超过历史90%分位水平，显示出市场资金对该股的积极态度。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：8月29日获融资买入1.23亿元，占当日流入资金比例为19.62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-01 11:23</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>先进封装hbm 公司信息更新报告：下游需求回暖，高端先进封装进入量产阶段</t>
+          <t>福莱新材是否正迎来新的发展机遇？近期，福莱新材在人形机器人领域的布局引起了市场的广泛关注。两份光大证券的研报揭示了该领域的最新动态，为公司的发展提供了有力支撑。政策支持：人形机器人产业政策逐步完善行业催化：首个工业领域具身机器人规模化商业签单技术突破：英伟达推出全新人工智能模型综上所述，福莱新材在人形机器人领域的布局正迎来政策、行业和技术的多重利好，未来发展前景值得期待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 光大证券-机械行业周报2025年第33周：2025世界人形机器人运动会顺利举行，液冷方案成数据中心散热的关键-250819</t>
         </is>
       </c>
     </row>
@@ -739,6 +611,201 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>川发龙蟒</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-20 09:53</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>磷化工 开源证券-基础化工行业周报：库存持续释放，涤纶长丝市场走势上行-250505</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>113.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-20 11:14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>仓位释放出来。 法拉电子2025年08月20日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>妙可蓝多</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-20 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>乳品 抢占B端乳品新蓝海：国产替代正当时</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -890,7 +957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1214,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +1519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1733,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1971,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2252,7 +2319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2490,7 +2557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2771,7 +2838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3181,13 +3248,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3255,16 +3322,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>王子新材</t>
+          <t>深桑达A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.41</v>
+        <v>26.97</v>
       </c>
       <c r="F2" t="n">
         <v>33</v>
@@ -3276,12 +3343,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-05 09:52</t>
+          <t>2025-09-01 09:31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
+          <t>云 东吴证券-计算机行业点评报告：Scale AI，AI时代卖水人-250804</t>
         </is>
       </c>
     </row>
@@ -3293,12 +3360,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光华科技</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3307,10 +3374,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.55</v>
+        <v>13.8</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3319,164 +3386,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-05 10:14</t>
+          <t>2025-09-01 09:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信证券</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:48</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:54</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
+          <t>止盈 有色锆概念资金剧烈分化：盛和资源逆势吸金6184万，东方锆业单日撤离1.5亿创纪录</t>
         </is>
       </c>
     </row>
@@ -3493,16 +3408,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>烽火通信</t>
+          <t>创新医疗</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.53</v>
+        <v>23.32</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3514,19 +3429,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-29 10:27</t>
+          <t>2025-09-01 09:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
+          <t>调仓 创新医疗2025年09月01日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-中线龙头</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3536,19 +3451,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创新医疗</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.48</v>
+        <v>12.8</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3557,12 +3472,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-29 10:34</t>
+          <t>2025-09-01 10:21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
+          <t>博敏电子近期的融资数据是否预示着新的投资机会？8月29日，博敏电子获融资买入1.23亿元，占当日买入金额的19.62%。融资买入活跃：8月29日融资买入额达1.23亿元融资余额高位：当前融资余额5.50亿元，占流通市值7.40%历史分位水平：融资余额超过历史90%分位水平博敏电子近期融资买入活跃，融资余额处于高位，且超过历史90%分位水平，显示出市场资金对该股的积极态度。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：8月29日获融资买入1.23亿元，占当日流入资金比例为19.62%</t>
         </is>
       </c>
     </row>
@@ -3574,12 +3489,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3588,10 +3503,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.42</v>
+        <v>41.27</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3600,55 +3515,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-29 10:37</t>
+          <t>2025-09-01 11:23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>蔚蓝锂芯</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 13:08</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
+          <t>先进封装hbm 公司信息更新报告：下游需求回暖，高端先进封装进入量产阶段</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3593,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3731,7 +3603,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3740,10 +3612,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3752,12 +3624,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3641,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3783,10 +3655,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3795,12 +3667,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,43 +3745,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3992,16 +3907,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4013,12 +3928,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4028,6 +3943,115 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4351,7 +4375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4417,7 +4441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4741,7 +4765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5151,7 +5175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5260,7 +5284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5498,7 +5522,331 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:48</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:27</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:34</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:37</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-29 13:08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5650,288 +5998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三花智控</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>30.87</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-28 09:53</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 三花智控2025年08月28日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>通富微电</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:15</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>离场 通富微电2025年08月28日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:25</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信证券</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>烽火通信</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:39</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6341,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6665,7 +6732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7161,7 +7228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7485,7 +7552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7895,7 +7962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8262,7 +8329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8500,7 +8567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8597,236 +8664,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -8901,7 +8738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETF-主题轮动精选</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8911,31 +8748,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>515790</v>
+        <v>603079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6899999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F2" t="n">
-        <v>49.79</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-04 12:49</t>
+          <t>2025-07-07 09:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -8947,22 +8784,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2666</v>
+        <v>2440</v>
       </c>
       <c r="E3" t="n">
-        <v>5.1</v>
+        <v>7.92</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -8971,39 +8808,39 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39</t>
+          <t>2025-07-07 10:27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601997</v>
+        <v>603001</v>
       </c>
       <c r="E4" t="n">
-        <v>6.52</v>
+        <v>7.02</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -9012,40 +8849,39 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:38</t>
+          <t>2025-07-07 13:29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
-胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>600667</v>
+        <v>603217</v>
       </c>
       <c r="E5" t="n">
-        <v>6.52</v>
+        <v>17.75</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -9054,12 +8890,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-04 10:12</t>
+          <t>2025-07-07 14:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -9069,6 +8905,518 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 三花智控2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 通富微电2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:25</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:39</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ETF-主题轮动精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>515790</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-04 12:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:39</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贵阳银行</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:38</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
+胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太极实业</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>600667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9478,7 +9826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9802,7 +10150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9954,7 +10302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10235,7 +10583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10342,199 +10690,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>川发龙蟒</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-20 09:53</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>磷化工 开源证券-基础化工行业周报：库存持续释放，涤纶长丝市场走势上行-250505</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>法拉电子</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>113.29</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-20 11:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>仓位释放出来。 法拉电子2025年08月20日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>妙可蓝多</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-20 11:28</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>乳品 抢占B端乳品新蓝海：国产替代正当时</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,46 +7,47 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="41" state="visible" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,16 +533,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘业期货</t>
+          <t>蔚蓝锂芯</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.8</v>
+        <v>17.89</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -553,55 +554,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-02 13:28</t>
+          <t>2025-09-03 09:39</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>切换部分仓位到机器人 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>605***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>32.97</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-02 13:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>福莱新材是否正迎来新的发展机遇？近期，福莱新材在人形机器人领域的布局引起了市场的广泛关注。两份光大证券的研报揭示了该领域的最新动态，为公司的发展提供了有力支撑。政策支持：人形机器人产业政策逐步完善行业催化：首个工业领域具身机器人规模化商业签单技术突破：英伟达推出全新人工智能模型综上所述，福莱新材在人形机器人领域的布局正迎来政策、行业和技术的多重利好，未来发展前景值得期待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 光大证券-机械行业周报2025年第33周：2025世界人形机器人运动会顺利举行，液冷方案成数据中心散热的关键-250819</t>
+          <t>调仓换股 蔚蓝锂芯：机器人/狗等新兴领域是公司为未来所做的战略布局</t>
         </is>
       </c>
     </row>
@@ -611,6 +569,115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>川发龙蟒</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-21 10:32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈，调仓 川发龙蟒2025年08月21日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -805,7 +872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -957,7 +1024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1519,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1800,7 +1867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2038,7 +2105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2319,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2557,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2838,7 +2905,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:28</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>切换部分仓位到机器人 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>福莱新材是否正迎来新的发展机遇？近期，福莱新材在人形机器人领域的布局引起了市场的广泛关注。两份光大证券的研报揭示了该领域的最新动态，为公司的发展提供了有力支撑。政策支持：人形机器人产业政策逐步完善行业催化：首个工业领域具身机器人规模化商业签单技术突破：英伟达推出全新人工智能模型综上所述，福莱新材在人形机器人领域的布局正迎来政策、行业和技术的多重利好，未来发展前景值得期待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 光大证券-机械行业周报2025年第33周：2025世界人形机器人运动会顺利举行，液冷方案成数据中心散热的关键-250819</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3240,439 +3459,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>深桑达A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:31</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>云 东吴证券-计算机行业点评报告：Scale AI，AI时代卖水人-250804</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>止盈 有色锆概念资金剧烈分化：盛和资源逆势吸金6184万，东方锆业单日撤离1.5亿创纪录</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创新医疗</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>调仓 创新医疗2025年09月01日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-中线龙头</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-01 10:21</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>博敏电子近期的融资数据是否预示着新的投资机会？8月29日，博敏电子获融资买入1.23亿元，占当日买入金额的19.62%。融资买入活跃：8月29日融资买入额达1.23亿元融资余额高位：当前融资余额5.50亿元，占流通市值7.40%历史分位水平：融资余额超过历史90%分位水平博敏电子近期融资买入活跃，融资余额处于高位，且超过历史90%分位水平，显示出市场资金对该股的积极态度。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：8月29日获融资买入1.23亿元，占当日流入资金比例为19.62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-01 11:23</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>先进封装hbm 公司信息更新报告：下游需求回暖，高端先进封装进入量产阶段</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3531,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3755,7 +3541,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3764,10 +3550,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3776,12 +3562,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3793,12 +3579,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3807,10 +3593,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3819,12 +3605,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,43 +3683,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4016,16 +3845,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4037,12 +3866,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4052,6 +3881,115 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4375,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4441,7 +4379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4765,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5175,7 +5113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5284,7 +5222,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>深桑达A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>云 东吴证券-计算机行业点评报告：Scale AI，AI时代卖水人-250804</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 有色锆概念资金剧烈分化：盛和资源逆势吸金6184万，东方锆业单日撤离1.5亿创纪录</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>调仓 创新医疗2025年09月01日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01 10:21</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>博敏电子近期的融资数据是否预示着新的投资机会？8月29日，博敏电子获融资买入1.23亿元，占当日买入金额的19.62%。融资买入活跃：8月29日融资买入额达1.23亿元融资余额高位：当前融资余额5.50亿元，占流通市值7.40%历史分位水平：融资余额超过历史90%分位水平博敏电子近期融资买入活跃，融资余额处于高位，且超过历史90%分位水平，显示出市场资金对该股的积极态度。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：8月29日获融资买入1.23亿元，占当日流入资金比例为19.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>41.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01 11:23</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>先进封装hbm 公司信息更新报告：下游需求回暖，高端先进封装进入量产阶段</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5522,7 +5741,569 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:35</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-17 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5591,12 +6372,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信证券</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5605,10 +6386,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.5</v>
+        <v>20.44</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5617,12 +6398,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 09:48</t>
+          <t>2025-07-16 09:37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5639,16 +6420,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方锆业</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.33</v>
+        <v>6.19</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
@@ -5660,12 +6441,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-29 09:54</t>
+          <t>2025-07-16 10:13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5682,7 +6463,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>烽火通信</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5691,7 +6472,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.53</v>
+        <v>25.57</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5703,12 +6484,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-29 10:27</t>
+          <t>2025-07-16 10:09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
         </is>
       </c>
     </row>
@@ -5725,16 +6506,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创新医疗</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.48</v>
+        <v>16.68</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -5746,12 +6527,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-29 10:34</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -5763,24 +6544,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.42</v>
+        <v>16.68</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -5789,41 +6570,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-29 10:37</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蔚蓝锂芯</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.05</v>
+        <v>15.71</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -5832,12 +6613,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-29 13:08</t>
+          <t>2025-07-16 13:46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -5846,13 +6627,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5910,7 +6691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5920,16 +6701,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.68</v>
+        <v>12.24</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5941,55 +6722,399 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:35</t>
+          <t>2025-07-15 09:20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-18 13:55</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5998,7 +7123,331 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6067,12 +7516,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6081,10 +7530,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.31</v>
+        <v>20.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6093,12 +7542,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-11 13:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6115,16 +7564,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>许继电气</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.31</v>
+        <v>21.91</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6136,19 +7585,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-11 13:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 大众交通2025年07月17日主力资金流</t>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6158,19 +7607,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.63</v>
+        <v>33.58</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6179,19 +7628,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-17 10:04</t>
+          <t>2025-07-11 13:16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6201,19 +7650,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.63</v>
+        <v>12.22</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6222,41 +7671,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-17 10:04</t>
+          <t>2025-07-11 11:48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.92</v>
+        <v>16.64</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6265,12 +7714,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-17 10:31</t>
+          <t>2025-07-11 10:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -6287,7 +7736,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>保利发展</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6296,7 +7745,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.92</v>
+        <v>8.33</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6308,12 +7757,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-17 10:31</t>
+          <t>2025-07-11 10:10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
         </is>
       </c>
     </row>
@@ -6325,24 +7774,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生电子</t>
+          <t>海格通信</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33.31</v>
+        <v>12.97</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -6351,12 +7800,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-17 13:44</t>
+          <t>2025-07-11 13:43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
         </is>
       </c>
     </row>
@@ -6368,24 +7817,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>合锻智能</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.26</v>
+        <v>10.96</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -6394,12 +7843,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-17 14:32</t>
+          <t>2025-07-11 13:59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>止损 合锻智能2025年07月17日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -6408,7 +7857,719 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>元利科技调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:19</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>粤宏远A调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>浙文互联调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-09 10:03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>荣晟环保调仓理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6477,12 +8638,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>中信证券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6491,10 +8652,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.44</v>
+        <v>31.5</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6503,12 +8664,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-16 09:37</t>
+          <t>2025-08-29 09:48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
+          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
         </is>
       </c>
     </row>
@@ -6525,16 +8686,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.19</v>
+        <v>13.33</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
@@ -6546,12 +8707,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-16 10:13</t>
+          <t>2025-08-29 09:54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
+          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
         </is>
       </c>
     </row>
@@ -6568,7 +8729,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>烽火通信</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6577,7 +8738,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.57</v>
+        <v>27.53</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6589,12 +8750,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-16 10:09</t>
+          <t>2025-08-29 10:27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
+          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
         </is>
       </c>
     </row>
@@ -6611,16 +8772,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>创新医疗</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.68</v>
+        <v>23.48</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -6632,12 +8793,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-16 11:17</t>
+          <t>2025-08-29 10:34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
         </is>
       </c>
     </row>
@@ -6649,24 +8810,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>合锻智能</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.68</v>
+        <v>34.42</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6675,41 +8836,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-16 11:17</t>
+          <t>2025-08-29 10:37</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
+          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新亚强</t>
+          <t>蔚蓝锂芯</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.71</v>
+        <v>18.05</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -6718,2465 +8879,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-16 13:46</t>
+          <t>2025-08-29 13:08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三花智控</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>30.87</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-28 09:53</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 三花智控2025年08月28日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>通富微电</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:15</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>离场 通富微电2025年08月28日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:25</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信证券</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>烽火通信</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:39</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
+          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
         </is>
       </c>
     </row>
@@ -9249,6 +8957,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -9417,6 +9355,287 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 三花智控2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 通富微电2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:25</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:39</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9826,7 +10045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10150,7 +10369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10302,7 +10521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10581,113 +10800,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>川发龙蟒</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-21 10:32</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈，调仓 川发龙蟒2025年08月21日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,47 +7,48 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,43 +524,172 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>爱婴室</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:13</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>爱婴室近期发布的2025年中报显示，公司上半年实现营业收入18.35亿元，同比增长8.31%，归母净利润0.47亿元，同比增长10.17%。单二季度，公司业绩表现尤为亮眼，营业收入9.76亿元，同比增长9.89%，归母净利润0.4亿元，同比增长10.87%。业绩增长：二季度盈利能力显著提升外延扩张：新开34家优质门店内生升级：门店优化提升运营效率总结来看，爱婴室在2025年上半年通过外延展店和内生门店升级，实现了业绩的稳步增长。二季度的经营性盈利能力进一步优化，显示出公司在市场中的竞争力和成长潜力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 2025年中报点评：单二季度经营性盈利能力优化</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>特发信息</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:35</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>空芯光纤 特发信息：2025年上半年盈利560.41万元 同比扭亏</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>蔚蓝锂芯</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:39</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>调仓换股 蔚蓝锂芯：机器人/狗等新兴领域是公司为未来所做的战略布局</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-05 13:42</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>止损换票 营收稳健增长，汽车电子与高端封装驱动长期成长</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大智慧</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-05 13:57</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>多元金融 大智慧：9月4日获融资买入9384.49万元</t>
         </is>
       </c>
     </row>
@@ -569,6 +699,287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>妙可蓝多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止损 妙可蓝多2025年08月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>共进股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>交换机 天风证券-计算机行业AI算力系列之交换机：算力网络稳定“核心”，助力AI高效发展-250625</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>92.89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 药明康德2025年08月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>用友网络</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ai应用 点评报告：“AI×数据×流程”原生一体加速企业AI落地</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-22 11:19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>钧达股份是否正迎来新的发展机遇？钧达股份近期发布H股发行聆讯后资料集，标志着其海外扩张计划迈出重要一步。海外产能推进：公司计划建设5GW光伏电池海外生产基地，强化盈利弹性。技术与渠道：募集资金将用于研发先进光伏电池技术及建立海外销售网络。市场表现：电气设备行业本周上涨0.57%，钧达股份作为行业龙头，有望受益于行业整体向好。综上所述，钧达股份的海外扩张计划和技术研发将为其带来新的增长动力，值得投资者关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 电力设备行业跟踪周报：人形国内外进展提速，固态前景广阔</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -677,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -872,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1024,7 +1435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1348,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1586,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1867,7 +2278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2105,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2386,7 +2797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +3035,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:39</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>调仓换股 蔚蓝锂芯：机器人/狗等新兴领域是公司为未来所做的战略布局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2905,159 +3425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>弘业期货</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>001***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-02 13:28</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>切换部分仓位到机器人 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>605***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>32.97</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-02 13:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>福莱新材是否正迎来新的发展机遇？近期，福莱新材在人形机器人领域的布局引起了市场的广泛关注。两份光大证券的研报揭示了该领域的最新动态，为公司的发展提供了有力支撑。政策支持：人形机器人产业政策逐步完善行业催化：首个工业领域具身机器人规模化商业签单技术突破：英伟达推出全新人工智能模型综上所述，福莱新材在人形机器人领域的布局正迎来政策、行业和技术的多重利好，未来发展前景值得期待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 光大证券-机械行业周报2025年第33周：2025世界人形机器人运动会顺利举行，液冷方案成数据中心散热的关键-250819</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3459,158 +3827,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3899,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3693,7 +3909,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3702,10 +3918,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3714,12 +3930,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3947,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3745,10 +3961,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3757,12 +3973,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3835,43 +4051,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3954,16 +4213,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3975,12 +4234,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3990,6 +4249,115 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4313,7 +4681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4379,7 +4747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4703,7 +5071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5113,7 +5481,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:28</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>切换部分仓位到机器人 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>福莱新材是否正迎来新的发展机遇？近期，福莱新材在人形机器人领域的布局引起了市场的广泛关注。两份光大证券的研报揭示了该领域的最新动态，为公司的发展提供了有力支撑。政策支持：人形机器人产业政策逐步完善行业催化：首个工业领域具身机器人规模化商业签单技术突破：英伟达推出全新人工智能模型综上所述，福莱新材在人形机器人领域的布局正迎来政策、行业和技术的多重利好，未来发展前景值得期待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 光大证券-机械行业周报2025年第33周：2025世界人形机器人运动会顺利举行，液冷方案成数据中心散热的关键-250819</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5222,7 +5742,2966 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 三一重工2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:35</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-17 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-16 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-16 13:46</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>许继电气</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:21</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海格通信</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:43</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>元利科技调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:19</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>粤宏远A调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>浙文互联调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-09 10:03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>荣晟环保调仓理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5503,2966 +8982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三一重工</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:14</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>减仓 三一重工2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:07</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>减仓 航锦科技2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:17</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>通力科技</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>全部出局 通力科技2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-18 09:35</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-18 13:55</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-17 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-17 09:52</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>换票 大众交通2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒生电子</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-17 13:44</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:32</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>止损 合锻智能2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:13</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-16 13:46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8559,560 +9079,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信证券</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:48</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:54</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>烽火通信</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:27</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创新医疗</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:34</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>34.42</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:37</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>蔚蓝锂芯</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 13:08</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -9187,6 +9153,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -9355,6 +9551,330 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:48</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 非银金融行业数据周报：保险板块跑赢大盘，市场活跃度边际下滑</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态十稀土 开源证券-电力设备行业周报：固态电池行业周报（第八期），宁德时代预计2027年小规模量产固态电池，2030年前后有望更大规模生产-250802</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:27</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>日内风格对科技不利。 烽火通信2025年08月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:34</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>脑机 国金证券-医药健康行业周报：政策支持创新药械，推动脑机接口产业发展-250809</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:37</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>离场，调仓换股 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-29 13:08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>bbu电源 业绩保持高增，BBU+机器人锂电布局打开增长天花板</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9635,7 +10155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10045,7 +10565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10369,7 +10889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10519,285 +11039,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>妙可蓝多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>27.33</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 妙可蓝多2025年08月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>共进股份</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>交换机 天风证券-计算机行业AI算力系列之交换机：算力网络稳定“核心”，助力AI高效发展-250625</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>药明康德</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>92.89</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:08</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 药明康德2025年08月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>用友网络</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:05</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ai应用 点评报告：“AI×数据×流程”原生一体加速企业AI落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>钧达股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>48.19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-22 11:19</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>钧达股份是否正迎来新的发展机遇？钧达股份近期发布H股发行聆讯后资料集，标志着其海外扩张计划迈出重要一步。海外产能推进：公司计划建设5GW光伏电池海外生产基地，强化盈利弹性。技术与渠道：募集资金将用于研发先进光伏电池技术及建立海外销售网络。市场表现：电气设备行业本周上涨0.57%，钧达股份作为行业龙头，有望受益于行业整体向好。综上所述，钧达股份的海外扩张计划和技术研发将为其带来新的增长动力，值得投资者关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 电力设备行业跟踪周报：人形国内外进展提速，固态前景广阔</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,48 +7,49 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="43" state="visible" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,29 +525,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>爱婴室</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>18.59</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -555,41 +552,33 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-05 10:13</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>爱婴室近期发布的2025年中报显示，公司上半年实现营业收入18.35亿元，同比增长8.31%，归母净利润0.47亿元，同比增长10.17%。单二季度，公司业绩表现尤为亮眼，营业收入9.76亿元，同比增长9.89%，归母净利润0.4亿元，同比增长10.87%。业绩增长：二季度盈利能力显著提升外延扩张：新开34家优质门店内生升级：门店优化提升运营效率总结来看，爱婴室在2025年上半年通过外延展店和内生门店升级，实现了业绩的稳步增长。二季度的经营性盈利能力进一步优化，显示出公司在市场中的竞争力和成长潜力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 2025年中报点评：单二季度经营性盈利能力优化</t>
-        </is>
-      </c>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>特发信息</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
+          <t>中体产业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>10.07</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -598,19 +587,15 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-05 10:35</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>空芯光纤 特发信息：2025年上半年盈利560.41万元 同比扭亏</t>
-        </is>
-      </c>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -620,16 +605,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
+          <t>城建发展</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>36.67</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -641,55 +622,549 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-05 13:42</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>止损换票 营收稳健增长，汽车电子与高端封装驱动长期成长</t>
-        </is>
-      </c>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>精工钢构</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中山公用</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卫光生物</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>深桑达A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>特发信息</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:30</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>止盈 特发信息：公司空芯光纤相关产品正常推进中</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大智慧</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>数据港</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F19" t="n">
         <v>33</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-05 13:57</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多元金融 大智慧：9月4日获融资买入9384.49万元</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-08 13:04</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>低吸国产算力 廊坊项目稳定推进，期待后续新项目开展</t>
         </is>
       </c>
     </row>
@@ -699,6 +1174,158 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>共进股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 共进股份2025年08月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>用友网络</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-25 11:17</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>药酒地产有色等降息受益风格强势导致跷跷板，不利持仓 组织优化全面收官，“AI至上”战略助推经营质量反转</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -979,7 +1606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1435,7 +2062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1759,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1997,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2278,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2516,7 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2797,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2861,7 +3488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2871,19 +3498,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>爱婴室</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.86</v>
+        <v>18.59</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2892,19 +3519,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-11 10:04</t>
+          <t>2025-09-05 10:13</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+          <t>爱婴室近期发布的2025年中报显示，公司上半年实现营业收入18.35亿元，同比增长8.31%，归母净利润0.47亿元，同比增长10.17%。单二季度，公司业绩表现尤为亮眼，营业收入9.76亿元，同比增长9.89%，归母净利润0.4亿元，同比增长10.87%。业绩增长：二季度盈利能力显著提升外延扩张：新开34家优质门店内生升级：门店优化提升运营效率总结来看，爱婴室在2025年上半年通过外延展店和内生门店升级，实现了业绩的稳步增长。二季度的经营性盈利能力进一步优化，显示出公司在市场中的竞争力和成长潜力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 2025年中报点评：单二季度经营性盈利能力优化</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2914,19 +3541,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>特发信息</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.54</v>
+        <v>10.07</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2935,41 +3562,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-11 10:33</t>
+          <t>2025-09-05 10:35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+          <t>空芯光纤 特发信息：2025年上半年盈利560.41万元 同比扭亏</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>605***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.55</v>
+        <v>36.67</v>
       </c>
       <c r="F4" t="n">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2978,12 +3605,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-11 13:30</t>
+          <t>2025-09-05 13:42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+          <t>止损换票 营收稳健增长，汽车电子与高端封装驱动长期成长</t>
         </is>
       </c>
     </row>
@@ -2995,24 +3622,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宗申动力</t>
+          <t>大智慧</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>601***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.36</v>
+        <v>14.78</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3021,12 +3648,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-11 14:05</t>
+          <t>2025-09-05 13:57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
+          <t>多元金融 大智慧：9月4日获融资买入9384.49万元</t>
         </is>
       </c>
     </row>
@@ -3035,13 +3662,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3104,38 +3731,167 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>蔚蓝锂芯</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:39</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>调仓换股 蔚蓝锂芯：机器人/狗等新兴领域是公司为未来所做的战略布局</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3827,158 +4583,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4655,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4061,7 +4665,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4070,10 +4674,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4082,12 +4686,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4703,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4113,10 +4717,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4125,12 +4729,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4203,43 +4807,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4322,16 +4969,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4343,12 +4990,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4358,6 +5005,115 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4681,7 +5437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4747,7 +5503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5071,7 +5827,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:39</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>调仓换股 蔚蓝锂芯：机器人/狗等新兴领域是公司为未来所做的战略布局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5481,7 +6346,354 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 三一重工2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5545,7 +6757,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5555,16 +6767,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘业期货</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.8</v>
+        <v>4.68</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5576,19 +6788,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-02 13:28</t>
+          <t>2025-07-18 09:35</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>切换部分仓位到机器人 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5598,19 +6810,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>航锦科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>605***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.97</v>
+        <v>22.66</v>
       </c>
       <c r="F3" t="n">
-        <v>20.16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5619,12 +6831,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-02 13:30</t>
+          <t>2025-07-18 13:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>福莱新材是否正迎来新的发展机遇？近期，福莱新材在人形机器人领域的布局引起了市场的广泛关注。两份光大证券的研报揭示了该领域的最新动态，为公司的发展提供了有力支撑。政策支持：人形机器人产业政策逐步完善行业催化：首个工业领域具身机器人规模化商业签单技术突破：英伟达推出全新人工智能模型综上所述，福莱新材在人形机器人领域的布局正迎来政策、行业和技术的多重利好，未来发展前景值得期待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 光大证券-机械行业周报2025年第33周：2025世界人形机器人运动会顺利举行，液冷方案成数据中心散热的关键-250819</t>
+          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5633,7 +6845,2728 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-17 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-16 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-16 13:46</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>许继电气</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:21</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海格通信</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:43</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:28</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>切换部分仓位到机器人 太平洋证券-非银行业周报：保险资管协会范围拓展，保险私募基金再扩容-250810</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>605***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>福莱新材是否正迎来新的发展机遇？近期，福莱新材在人形机器人领域的布局引起了市场的广泛关注。两份光大证券的研报揭示了该领域的最新动态，为公司的发展提供了有力支撑。政策支持：人形机器人产业政策逐步完善行业催化：首个工业领域具身机器人规模化商业签单技术突破：英伟达推出全新人工智能模型综上所述，福莱新材在人形机器人领域的布局正迎来政策、行业和技术的多重利好，未来发展前景值得期待。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 光大证券-机械行业周报2025年第33周：2025世界人形机器人运动会顺利举行，液冷方案成数据中心散热的关键-250819</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>元利科技调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:19</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>粤宏远A调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-09 14:11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>浙文互联调仓理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-09 10:03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>荣晟环保调仓理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5697,373 +9630,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603217</v>
       </c>
       <c r="E2" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-23 13:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三一重工</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:14</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>减仓 三一重工2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:07</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>减仓 航锦科技2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:17</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>通力科技</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>全部出局 通力科技2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>4.68</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -6075,3240 +9659,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:35</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-18 13:55</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-17 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-17 09:52</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>换票 大众交通2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒生电子</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-17 13:44</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:32</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>止损 合锻智能2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:13</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-16 13:46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>深桑达A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:31</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>云 东吴证券-计算机行业点评报告：Scale AI，AI时代卖水人-250804</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>止盈 有色锆概念资金剧烈分化：盛和资源逆势吸金6184万，东方锆业单日撤离1.5亿创纪录</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创新医疗</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>调仓 创新医疗2025年09月01日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-中线龙头</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-01 10:21</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>博敏电子近期的融资数据是否预示着新的投资机会？8月29日，博敏电子获融资买入1.23亿元，占当日买入金额的19.62%。融资买入活跃：8月29日融资买入额达1.23亿元融资余额高位：当前融资余额5.50亿元，占流通市值7.40%历史分位水平：融资余额超过历史90%分位水平博敏电子近期融资买入活跃，融资余额处于高位，且超过历史90%分位水平，显示出市场资金对该股的积极态度。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：8月29日获融资买入1.23亿元，占当日流入资金比例为19.62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-01 11:23</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>先进封装hbm 公司信息更新报告：下游需求回暖，高端先进封装进入量产阶段</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -9383,6 +9737,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -9551,6 +10135,287 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>深桑达A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>云 东吴证券-计算机行业点评报告：Scale AI，AI时代卖水人-250804</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>止盈 有色锆概念资金剧烈分化：盛和资源逆势吸金6184万，东方锆业单日撤离1.5亿创纪录</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>调仓 创新医疗2025年09月01日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01 10:21</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>博敏电子近期的融资数据是否预示着新的投资机会？8月29日，博敏电子获融资买入1.23亿元，占当日买入金额的19.62%。融资买入活跃：8月29日融资买入额达1.23亿元融资余额高位：当前融资余额5.50亿元，占流通市值7.40%历史分位水平：融资余额超过历史90%分位水平博敏电子近期融资买入活跃，融资余额处于高位，且超过历史90%分位水平，显示出市场资金对该股的积极态度。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：8月29日获融资买入1.23亿元，占当日流入资金比例为19.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>41.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01 11:23</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>先进封装hbm 公司信息更新报告：下游需求回暖，高端先进封装进入量产阶段</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9874,7 +10739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10155,7 +11020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10565,7 +11430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10887,156 +11752,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>共进股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 共进股份2025年08月25日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>用友网络</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-25 11:17</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>药酒地产有色等降息受益风格强势导致跷跷板，不利持仓 组织优化全面收官，“AI至上”战略助推经营质量反转</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/Combination_portfolio_today.xlsx
@@ -7,51 +7,52 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-21" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-20" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="46" state="visible" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +533,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>数据港</t>
+          <t>传艺科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -549,7 +550,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>祥鑫科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -559,6 +594,287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:53</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 三花智控2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 通富微电2025年08月28日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:25</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>机器人 2025H1利润快速增长，具身智能与低空领域布局加速推进</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>券商 证券行业2025年中报前瞻：2Q25业绩修复有望持续，关注龙头与高弹性标的</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:39</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>空芯光纤 光通信为基，算力服务作为新增长引擎未来可期</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -968,7 +1284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1292,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1444,7 +1760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1725,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1834,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2029,7 +2345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2181,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2505,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2743,7 +3059,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>数据港</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3024,194 +3435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华菱钢铁</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>锦江在线</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>降低仓位 锦江在线：锦江出租作为上海市首批获得智能网联汽车示范运营牌照的企业</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-中线龙头</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:51</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>博敏电子近期的市场表现引发了投资者的关注。尽管江苏博敏二期工厂在技术、产品、客户及运营管理等方面取得了长足进步，但当前市场环境仍存在不确定性，投资者需谨慎对待。订单结构改善：江苏博敏二期工厂产能利用率稳步提升，订单结构持续优化。规模效应显现：伴随产能利用率的提升，规模效应将逐渐显现，经营业绩有望改善。市场环境不确定性：尽管公司基本面有所改善，但市场环境仍存在不确定性，投资者需保持警惕。综上所述，博敏电子在江苏博敏二期工厂的产能利用率和订单结构方面取得了显著进展，但市场环境的不确定性仍需投资者关注。建议投资者在做出投资决策时，充分考虑市场风险。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：江苏博敏二期工厂产能利用率稳步提升</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3449,7 +3673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3730,7 +3954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3968,7 +4192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4249,7 +4473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4651,158 +4875,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4947,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4885,7 +4957,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4894,10 +4966,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4906,12 +4978,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4923,12 +4995,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4937,10 +5009,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4949,12 +5021,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4969,7 +5041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5027,43 +5099,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5146,16 +5261,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5167,12 +5282,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5182,6 +5297,302 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>降低仓位 锦江在线：锦江出租作为上海市首批获得智能网联汽车示范运营牌照的企业</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:51</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>博敏电子近期的市场表现引发了投资者的关注。尽管江苏博敏二期工厂在技术、产品、客户及运营管理等方面取得了长足进步，但当前市场环境仍存在不确定性，投资者需谨慎对待。订单结构改善：江苏博敏二期工厂产能利用率稳步提升，订单结构持续优化。规模效应显现：伴随产能利用率的提升，规模效应将逐渐显现，经营业绩有望改善。市场环境不确定性：尽管公司基本面有所改善，但市场环境仍存在不确定性，投资者需保持警惕。综上所述，博敏电子在江苏博敏二期工厂的产能利用率和订单结构方面取得了显著进展，但市场环境的不确定性仍需投资者关注。建议投资者在做出投资决策时，充分考虑市场风险。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：江苏博敏二期工厂产能利用率稳步提升</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5505,7 +5916,2536 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作<